--- a/New_Apex_Users.xlsx
+++ b/New_Apex_Users.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tmgolf-my.sharepoint.com/personal/brandon_yates_taylormadegolf_com/Documents/Documents/GitHub/Apex-Revamped/Apex/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tmgolf-my.sharepoint.com/personal/brandon_yates_taylormadegolf_com/Documents/Documents/GitHub/Apex-Revamped/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1924" documentId="13_ncr:1_{8E09E700-47DA-4F61-8A8F-DCB1AD3AABF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBD11DC1-33FC-4E30-A93D-28F04AA350A1}"/>
+  <xr:revisionPtr revIDLastSave="1939" documentId="13_ncr:1_{8E09E700-47DA-4F61-8A8F-DCB1AD3AABF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8B82BD0-E5EE-46ED-9393-EB686EF12CF9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21315" yWindow="825" windowWidth="17250" windowHeight="9990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="652">
   <si>
     <t>First Name</t>
   </si>
@@ -1989,10 +1989,10 @@
     <t>Paulis</t>
   </si>
   <si>
-    <t>Brandon</t>
-  </si>
-  <si>
-    <t>Yates</t>
+    <t xml:space="preserve">Python </t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -2164,7 +2164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2207,18 +2207,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2625,10 +2613,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2668,28 +2656,106 @@
         <v>651</v>
       </c>
       <c r="C2" s="8">
-        <v>4685</v>
+        <v>11112</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C3" s="8">
+        <v>11113</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C4" s="8">
+        <v>11114</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C5" s="8">
+        <v>11115</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="E5" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C6" s="8">
+        <v>11116</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C7" s="8">
+        <v>11117</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C8" s="8">
+        <v>11118</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -9671,352 +9737,352 @@
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A503" s="15" t="s">
+      <c r="A503" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B503" s="15" t="s">
+      <c r="B503" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C503" s="16">
+      <c r="C503" s="6">
         <v>9209</v>
       </c>
-      <c r="D503" s="15" t="s">
+      <c r="D503" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A504" s="17" t="s">
+      <c r="A504" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B504" s="17" t="s">
+      <c r="B504" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C504" s="18">
+      <c r="C504" s="5">
         <v>9279</v>
       </c>
-      <c r="D504" s="17" t="s">
+      <c r="D504" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A505" s="15" t="s">
+      <c r="A505" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B505" s="15" t="s">
+      <c r="B505" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C505" s="16">
+      <c r="C505" s="6">
         <v>9276</v>
       </c>
-      <c r="D505" s="15" t="s">
+      <c r="D505" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A506" s="17" t="s">
+      <c r="A506" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B506" s="17" t="s">
+      <c r="B506" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C506" s="18">
+      <c r="C506" s="5">
         <v>9274</v>
       </c>
-      <c r="D506" s="17" t="s">
+      <c r="D506" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A507" s="15" t="s">
+      <c r="A507" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B507" s="15" t="s">
+      <c r="B507" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C507" s="16">
+      <c r="C507" s="6">
         <v>9261</v>
       </c>
-      <c r="D507" s="15" t="s">
+      <c r="D507" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A508" s="17" t="s">
+      <c r="A508" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B508" s="17" t="s">
+      <c r="B508" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C508" s="18">
+      <c r="C508" s="5">
         <v>9260</v>
       </c>
-      <c r="D508" s="17" t="s">
+      <c r="D508" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A509" s="15" t="s">
+      <c r="A509" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B509" s="15" t="s">
+      <c r="B509" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C509" s="16">
+      <c r="C509" s="6">
         <v>9259</v>
       </c>
-      <c r="D509" s="15" t="s">
+      <c r="D509" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A510" s="17" t="s">
+      <c r="A510" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B510" s="17" t="s">
+      <c r="B510" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C510" s="18">
+      <c r="C510" s="5">
         <v>9258</v>
       </c>
-      <c r="D510" s="17" t="s">
+      <c r="D510" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A511" s="15" t="s">
+      <c r="A511" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B511" s="15" t="s">
+      <c r="B511" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C511" s="16">
+      <c r="C511" s="6">
         <v>9257</v>
       </c>
-      <c r="D511" s="15" t="s">
+      <c r="D511" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A512" s="17" t="s">
+      <c r="A512" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B512" s="17" t="s">
+      <c r="B512" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C512" s="18">
+      <c r="C512" s="5">
         <v>9256</v>
       </c>
-      <c r="D512" s="17" t="s">
+      <c r="D512" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A513" s="15" t="s">
+      <c r="A513" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B513" s="15" t="s">
+      <c r="B513" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C513" s="16">
+      <c r="C513" s="6">
         <v>9255</v>
       </c>
-      <c r="D513" s="15" t="s">
+      <c r="D513" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A514" s="17" t="s">
+      <c r="A514" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B514" s="17" t="s">
+      <c r="B514" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C514" s="18">
+      <c r="C514" s="5">
         <v>9254</v>
       </c>
-      <c r="D514" s="17" t="s">
+      <c r="D514" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A515" s="15" t="s">
+      <c r="A515" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B515" s="15" t="s">
+      <c r="B515" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C515" s="16">
+      <c r="C515" s="6">
         <v>9253</v>
       </c>
-      <c r="D515" s="15" t="s">
+      <c r="D515" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A516" s="17" t="s">
+      <c r="A516" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B516" s="17" t="s">
+      <c r="B516" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C516" s="18">
+      <c r="C516" s="5">
         <v>9219</v>
       </c>
-      <c r="D516" s="17" t="s">
+      <c r="D516" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A517" s="15" t="s">
+      <c r="A517" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B517" s="15" t="s">
+      <c r="B517" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C517" s="16">
+      <c r="C517" s="6">
         <v>9218</v>
       </c>
-      <c r="D517" s="15" t="s">
+      <c r="D517" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A518" s="17" t="s">
+      <c r="A518" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B518" s="17" t="s">
+      <c r="B518" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C518" s="18">
+      <c r="C518" s="5">
         <v>9217</v>
       </c>
-      <c r="D518" s="17" t="s">
+      <c r="D518" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A519" s="15" t="s">
+      <c r="A519" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B519" s="15" t="s">
+      <c r="B519" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C519" s="16">
+      <c r="C519" s="6">
         <v>9216</v>
       </c>
-      <c r="D519" s="15" t="s">
+      <c r="D519" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A520" s="17" t="s">
+      <c r="A520" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B520" s="17" t="s">
+      <c r="B520" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C520" s="18">
+      <c r="C520" s="5">
         <v>9222</v>
       </c>
-      <c r="D520" s="17" t="s">
+      <c r="D520" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A521" s="15" t="s">
+      <c r="A521" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B521" s="15" t="s">
+      <c r="B521" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C521" s="16">
+      <c r="C521" s="6">
         <v>9264</v>
       </c>
-      <c r="D521" s="15" t="s">
+      <c r="D521" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A522" s="17" t="s">
+      <c r="A522" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B522" s="17" t="s">
+      <c r="B522" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C522" s="18">
+      <c r="C522" s="5">
         <v>9272</v>
       </c>
-      <c r="D522" s="17" t="s">
+      <c r="D522" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A523" s="15" t="s">
+      <c r="A523" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B523" s="15" t="s">
+      <c r="B523" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C523" s="16">
+      <c r="C523" s="6">
         <v>9220</v>
       </c>
-      <c r="D523" s="15" t="s">
+      <c r="D523" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A524" s="17" t="s">
+      <c r="A524" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B524" s="17" t="s">
+      <c r="B524" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C524" s="18">
+      <c r="C524" s="5">
         <v>11437</v>
       </c>
-      <c r="D524" s="17" t="s">
+      <c r="D524" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A525" s="15" t="s">
+      <c r="A525" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B525" s="15" t="s">
+      <c r="B525" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C525" s="16">
+      <c r="C525" s="6">
         <v>11436</v>
       </c>
-      <c r="D525" s="15" t="s">
+      <c r="D525" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A526" s="17" t="s">
+      <c r="A526" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B526" s="17" t="s">
+      <c r="B526" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C526" s="18">
+      <c r="C526" s="5">
         <v>11435</v>
       </c>
-      <c r="D526" s="17" t="s">
+      <c r="D526" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A527" s="15" t="s">
+      <c r="A527" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B527" s="15" t="s">
+      <c r="B527" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C527" s="16">
+      <c r="C527" s="6">
         <v>11434</v>
       </c>
-      <c r="D527" s="15" t="s">
+      <c r="D527" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/New_Apex_Users.xlsx
+++ b/New_Apex_Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tmgolf-my.sharepoint.com/personal/brandon_yates_taylormadegolf_com/Documents/Documents/GitHub/Apex-Revamped/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1939" documentId="13_ncr:1_{8E09E700-47DA-4F61-8A8F-DCB1AD3AABF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8B82BD0-E5EE-46ED-9393-EB686EF12CF9}"/>
+  <xr:revisionPtr revIDLastSave="1940" documentId="13_ncr:1_{8E09E700-47DA-4F61-8A8F-DCB1AD3AABF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CB6B4DF-A142-4FEA-8DB2-683FB4245260}"/>
   <bookViews>
     <workbookView xWindow="-21315" yWindow="825" windowWidth="17250" windowHeight="9990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="652">
   <si>
     <t>First Name</t>
   </si>
@@ -2313,8 +2313,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FFF1182C-47B5-458A-8340-D889850809B5}" name="Table1" displayName="Table1" ref="A1:D1048551" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A1:D1048551" xr:uid="{FFF1182C-47B5-458A-8340-D889850809B5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FFF1182C-47B5-458A-8340-D889850809B5}" name="Table1" displayName="Table1" ref="A1:D1048550" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:D1048550" xr:uid="{FFF1182C-47B5-458A-8340-D889850809B5}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{62E7DE4D-AC90-4FCB-A868-E35C807438A0}" name="First Name" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{29082BBD-BCB1-4BD7-A9B4-2F9F16182832}" name="Last Name" dataDxfId="5"/>
@@ -2613,10 +2613,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2656,13 +2656,13 @@
         <v>651</v>
       </c>
       <c r="C2" s="8">
-        <v>11112</v>
+        <v>11113</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2673,13 +2673,13 @@
         <v>651</v>
       </c>
       <c r="C3" s="8">
-        <v>11113</v>
+        <v>11114</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2690,13 +2690,13 @@
         <v>651</v>
       </c>
       <c r="C4" s="8">
-        <v>11114</v>
+        <v>11115</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2707,13 +2707,10 @@
         <v>651</v>
       </c>
       <c r="C5" s="8">
-        <v>11115</v>
+        <v>11116</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2724,7 +2721,7 @@
         <v>651</v>
       </c>
       <c r="C6" s="8">
-        <v>11116</v>
+        <v>11117</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>7</v>
@@ -2738,23 +2735,9 @@
         <v>651</v>
       </c>
       <c r="C7" s="8">
-        <v>11117</v>
+        <v>11118</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="C8" s="8">
-        <v>11118</v>
-      </c>
-      <c r="D8" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10120,15 +10103,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC7C19C8B79DF846A59EF11074BAA4E6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac75452dfaff1ddbee136b983182fa5f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="64f8f827-b2a5-48dc-b2c3-f16a6c19a3e1" xmlns:ns3="19fc8c01-1281-4c4f-a9d6-4eaecf49cf8c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b0f6662259a420d4235d7fe97ace352" ns2:_="" ns3:_="">
     <xsd:import namespace="64f8f827-b2a5-48dc-b2c3-f16a6c19a3e1"/>
@@ -10345,6 +10319,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{516C47DE-5E69-4ED4-B335-2D06DB8F4F74}">
   <ds:schemaRefs>
@@ -10357,14 +10340,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31236C6E-5FF1-4D70-876A-B16E5BFCC253}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8608753D-D904-4E13-B351-DF9ECED19E3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10381,4 +10356,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31236C6E-5FF1-4D70-876A-B16E5BFCC253}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/New_Apex_Users.xlsx
+++ b/New_Apex_Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tmgolf-my.sharepoint.com/personal/brandon_yates_taylormadegolf_com/Documents/Documents/GitHub/Apex-Revamped/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1940" documentId="13_ncr:1_{8E09E700-47DA-4F61-8A8F-DCB1AD3AABF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CB6B4DF-A142-4FEA-8DB2-683FB4245260}"/>
+  <xr:revisionPtr revIDLastSave="1942" documentId="13_ncr:1_{8E09E700-47DA-4F61-8A8F-DCB1AD3AABF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC355450-2184-41C3-95DF-EFBAF50025E0}"/>
   <bookViews>
     <workbookView xWindow="-21315" yWindow="825" windowWidth="17250" windowHeight="9990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2616,7 +2616,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2673,7 +2673,7 @@
         <v>651</v>
       </c>
       <c r="C3" s="8">
-        <v>11114</v>
+        <v>4444</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>7</v>
@@ -2707,7 +2707,7 @@
         <v>651</v>
       </c>
       <c r="C5" s="8">
-        <v>11116</v>
+        <v>6666</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>7</v>
@@ -10103,6 +10103,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC7C19C8B79DF846A59EF11074BAA4E6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac75452dfaff1ddbee136b983182fa5f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="64f8f827-b2a5-48dc-b2c3-f16a6c19a3e1" xmlns:ns3="19fc8c01-1281-4c4f-a9d6-4eaecf49cf8c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b0f6662259a420d4235d7fe97ace352" ns2:_="" ns3:_="">
     <xsd:import namespace="64f8f827-b2a5-48dc-b2c3-f16a6c19a3e1"/>
@@ -10319,15 +10328,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{516C47DE-5E69-4ED4-B335-2D06DB8F4F74}">
   <ds:schemaRefs>
@@ -10340,6 +10340,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31236C6E-5FF1-4D70-876A-B16E5BFCC253}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8608753D-D904-4E13-B351-DF9ECED19E3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10356,12 +10364,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31236C6E-5FF1-4D70-876A-B16E5BFCC253}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/New_Apex_Users.xlsx
+++ b/New_Apex_Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tmgolf-my.sharepoint.com/personal/brandon_yates_taylormadegolf_com/Documents/Documents/GitHub/Apex-Revamped/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1942" documentId="13_ncr:1_{8E09E700-47DA-4F61-8A8F-DCB1AD3AABF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC355450-2184-41C3-95DF-EFBAF50025E0}"/>
+  <xr:revisionPtr revIDLastSave="1953" documentId="13_ncr:1_{8E09E700-47DA-4F61-8A8F-DCB1AD3AABF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52872F15-E693-465B-A419-5779D276B3DC}"/>
   <bookViews>
     <workbookView xWindow="-21315" yWindow="825" windowWidth="17250" windowHeight="9990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="653">
   <si>
     <t>First Name</t>
   </si>
@@ -1993,6 +1993,9 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>General</t>
   </si>
 </sst>
 </file>
@@ -2613,10 +2616,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2738,6 +2741,90 @@
         <v>11118</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C8" s="8">
+        <v>11119</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C9" s="8">
+        <v>11120</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C10" s="8">
+        <v>11121</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C11" s="8">
+        <v>11122</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C12" s="8">
+        <v>11123</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C13" s="8">
+        <v>11124</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10103,15 +10190,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC7C19C8B79DF846A59EF11074BAA4E6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac75452dfaff1ddbee136b983182fa5f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="64f8f827-b2a5-48dc-b2c3-f16a6c19a3e1" xmlns:ns3="19fc8c01-1281-4c4f-a9d6-4eaecf49cf8c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b0f6662259a420d4235d7fe97ace352" ns2:_="" ns3:_="">
     <xsd:import namespace="64f8f827-b2a5-48dc-b2c3-f16a6c19a3e1"/>
@@ -10328,6 +10406,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{516C47DE-5E69-4ED4-B335-2D06DB8F4F74}">
   <ds:schemaRefs>
@@ -10340,14 +10427,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31236C6E-5FF1-4D70-876A-B16E5BFCC253}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8608753D-D904-4E13-B351-DF9ECED19E3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10364,4 +10443,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31236C6E-5FF1-4D70-876A-B16E5BFCC253}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/New_Apex_Users.xlsx
+++ b/New_Apex_Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tmgolf-my.sharepoint.com/personal/brandon_yates_taylormadegolf_com/Documents/Documents/GitHub/Apex-Revamped/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1953" documentId="13_ncr:1_{8E09E700-47DA-4F61-8A8F-DCB1AD3AABF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52872F15-E693-465B-A419-5779D276B3DC}"/>
+  <xr:revisionPtr revIDLastSave="1978" documentId="13_ncr:1_{8E09E700-47DA-4F61-8A8F-DCB1AD3AABF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65296F35-4234-4815-A0E1-4A76D1591083}"/>
   <bookViews>
     <workbookView xWindow="-21315" yWindow="825" windowWidth="17250" windowHeight="9990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="664">
   <si>
     <t>First Name</t>
   </si>
@@ -1989,13 +1989,46 @@
     <t>Paulis</t>
   </si>
   <si>
-    <t xml:space="preserve">Python </t>
-  </si>
-  <si>
-    <t>Test</t>
+    <t>Python</t>
   </si>
   <si>
     <t>General</t>
+  </si>
+  <si>
+    <t>Bot 1</t>
+  </si>
+  <si>
+    <t>Bot 2</t>
+  </si>
+  <si>
+    <t>Bot 3</t>
+  </si>
+  <si>
+    <t>Bot 4</t>
+  </si>
+  <si>
+    <t>Bot 5</t>
+  </si>
+  <si>
+    <t>Bot 6</t>
+  </si>
+  <si>
+    <t>Bot 7</t>
+  </si>
+  <si>
+    <t>Bot 8</t>
+  </si>
+  <si>
+    <t>Bot 9</t>
+  </si>
+  <si>
+    <t>Bot 10</t>
+  </si>
+  <si>
+    <t>Bot 11</t>
+  </si>
+  <si>
+    <t>Bot 12</t>
   </si>
 </sst>
 </file>
@@ -2619,7 +2652,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2656,13 +2689,13 @@
         <v>650</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C2" s="8">
-        <v>11113</v>
+        <v>11125</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -2673,13 +2706,13 @@
         <v>650</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="C3" s="8">
+        <v>11126</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>651</v>
-      </c>
-      <c r="C3" s="8">
-        <v>4444</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -2690,10 +2723,10 @@
         <v>650</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C4" s="8">
-        <v>11115</v>
+        <v>11127</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>7</v>
@@ -2707,13 +2740,13 @@
         <v>650</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="C5" s="8">
-        <v>6666</v>
+        <v>11128</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2721,13 +2754,13 @@
         <v>650</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="C6" s="8">
-        <v>11117</v>
+        <v>11129</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2735,13 +2768,13 @@
         <v>650</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="C7" s="8">
-        <v>11118</v>
+        <v>11130</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2749,13 +2782,13 @@
         <v>650</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="C8" s="8">
+        <v>11131</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>651</v>
-      </c>
-      <c r="C8" s="8">
-        <v>11119</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2763,13 +2796,13 @@
         <v>650</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="C9" s="8">
-        <v>11120</v>
+        <v>11132</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>652</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2777,10 +2810,10 @@
         <v>650</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="C10" s="8">
-        <v>11121</v>
+        <v>11133</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>10</v>
@@ -2791,10 +2824,10 @@
         <v>650</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="C11" s="8">
-        <v>11122</v>
+        <v>11134</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>16</v>
@@ -2805,10 +2838,10 @@
         <v>650</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
       <c r="C12" s="8">
-        <v>11123</v>
+        <v>11135</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>13</v>
@@ -2819,13 +2852,13 @@
         <v>650</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="C13" s="8">
-        <v>11124</v>
+        <v>11136</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -10190,6 +10223,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC7C19C8B79DF846A59EF11074BAA4E6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac75452dfaff1ddbee136b983182fa5f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="64f8f827-b2a5-48dc-b2c3-f16a6c19a3e1" xmlns:ns3="19fc8c01-1281-4c4f-a9d6-4eaecf49cf8c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b0f6662259a420d4235d7fe97ace352" ns2:_="" ns3:_="">
     <xsd:import namespace="64f8f827-b2a5-48dc-b2c3-f16a6c19a3e1"/>
@@ -10406,15 +10448,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{516C47DE-5E69-4ED4-B335-2D06DB8F4F74}">
   <ds:schemaRefs>
@@ -10427,6 +10460,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31236C6E-5FF1-4D70-876A-B16E5BFCC253}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8608753D-D904-4E13-B351-DF9ECED19E3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10443,12 +10484,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31236C6E-5FF1-4D70-876A-B16E5BFCC253}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/New_Apex_Users.xlsx
+++ b/New_Apex_Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tmgolf-my.sharepoint.com/personal/brandon_yates_taylormadegolf_com/Documents/Documents/GitHub/Apex-Revamped/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1978" documentId="13_ncr:1_{8E09E700-47DA-4F61-8A8F-DCB1AD3AABF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65296F35-4234-4815-A0E1-4A76D1591083}"/>
+  <xr:revisionPtr revIDLastSave="1983" documentId="13_ncr:1_{8E09E700-47DA-4F61-8A8F-DCB1AD3AABF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F59AE731-F1AF-4C7B-B4BA-2CDC62A80E9B}"/>
   <bookViews>
     <workbookView xWindow="-21315" yWindow="825" windowWidth="17250" windowHeight="9990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="651">
   <si>
     <t>First Name</t>
   </si>
@@ -1989,46 +1989,7 @@
     <t>Paulis</t>
   </si>
   <si>
-    <t>Python</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Bot 1</t>
-  </si>
-  <si>
-    <t>Bot 2</t>
-  </si>
-  <si>
-    <t>Bot 3</t>
-  </si>
-  <si>
-    <t>Bot 4</t>
-  </si>
-  <si>
-    <t>Bot 5</t>
-  </si>
-  <si>
-    <t>Bot 6</t>
-  </si>
-  <si>
-    <t>Bot 7</t>
-  </si>
-  <si>
-    <t>Bot 8</t>
-  </si>
-  <si>
-    <t>Bot 9</t>
-  </si>
-  <si>
-    <t>Bot 10</t>
-  </si>
-  <si>
-    <t>Bot 11</t>
-  </si>
-  <si>
-    <t>Bot 12</t>
+    <t>Houchin</t>
   </si>
 </sst>
 </file>
@@ -2649,10 +2610,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2686,13 +2647,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>652</v>
-      </c>
       <c r="C2" s="8">
-        <v>11125</v>
+        <v>8302</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>13</v>
@@ -2702,163 +2663,13 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>653</v>
-      </c>
-      <c r="C3" s="8">
-        <v>11126</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>651</v>
-      </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="C4" s="8">
-        <v>11127</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="C5" s="8">
-        <v>11128</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="C6" s="8">
-        <v>11129</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="C7" s="8">
-        <v>11130</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>658</v>
-      </c>
-      <c r="C8" s="8">
-        <v>11131</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>659</v>
-      </c>
-      <c r="C9" s="8">
-        <v>11132</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>660</v>
-      </c>
-      <c r="C10" s="8">
-        <v>11133</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>661</v>
-      </c>
-      <c r="C11" s="8">
-        <v>11134</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>662</v>
-      </c>
-      <c r="C12" s="8">
-        <v>11135</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="C13" s="8">
-        <v>11136</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -10223,15 +10034,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC7C19C8B79DF846A59EF11074BAA4E6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac75452dfaff1ddbee136b983182fa5f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="64f8f827-b2a5-48dc-b2c3-f16a6c19a3e1" xmlns:ns3="19fc8c01-1281-4c4f-a9d6-4eaecf49cf8c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b0f6662259a420d4235d7fe97ace352" ns2:_="" ns3:_="">
     <xsd:import namespace="64f8f827-b2a5-48dc-b2c3-f16a6c19a3e1"/>
@@ -10448,6 +10250,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{516C47DE-5E69-4ED4-B335-2D06DB8F4F74}">
   <ds:schemaRefs>
@@ -10460,14 +10271,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31236C6E-5FF1-4D70-876A-B16E5BFCC253}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8608753D-D904-4E13-B351-DF9ECED19E3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10484,4 +10287,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31236C6E-5FF1-4D70-876A-B16E5BFCC253}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/New_Apex_Users.xlsx
+++ b/New_Apex_Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tmgolf-my.sharepoint.com/personal/brandon_yates_taylormadegolf_com/Documents/Documents/GitHub/Apex-Revamped/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1983" documentId="13_ncr:1_{8E09E700-47DA-4F61-8A8F-DCB1AD3AABF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F59AE731-F1AF-4C7B-B4BA-2CDC62A80E9B}"/>
+  <xr:revisionPtr revIDLastSave="1999" documentId="13_ncr:1_{8E09E700-47DA-4F61-8A8F-DCB1AD3AABF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFF14AD8-2114-4F61-95CA-2EA7F8768BDE}"/>
   <bookViews>
     <workbookView xWindow="-21315" yWindow="825" windowWidth="17250" windowHeight="9990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="653">
   <si>
     <t>First Name</t>
   </si>
@@ -1989,7 +1989,13 @@
     <t>Paulis</t>
   </si>
   <si>
-    <t>Houchin</t>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>General</t>
   </si>
 </sst>
 </file>
@@ -2610,10 +2616,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2647,13 +2653,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>205</v>
+        <v>650</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C2" s="8">
-        <v>8302</v>
+        <v>22221</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>13</v>
@@ -2663,12 +2669,120 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C3" s="8">
+        <v>22222</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>652</v>
+      </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C4" s="8">
+        <v>22223</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C5" s="8">
+        <v>22224</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C6" s="8">
+        <v>22225</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C7" s="8">
+        <v>22226</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C8" s="8">
+        <v>22227</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C9" s="8">
+        <v>22228</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C10" s="8">
+        <v>22229</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -10034,6 +10148,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC7C19C8B79DF846A59EF11074BAA4E6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac75452dfaff1ddbee136b983182fa5f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="64f8f827-b2a5-48dc-b2c3-f16a6c19a3e1" xmlns:ns3="19fc8c01-1281-4c4f-a9d6-4eaecf49cf8c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b0f6662259a420d4235d7fe97ace352" ns2:_="" ns3:_="">
     <xsd:import namespace="64f8f827-b2a5-48dc-b2c3-f16a6c19a3e1"/>
@@ -10250,15 +10373,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{516C47DE-5E69-4ED4-B335-2D06DB8F4F74}">
   <ds:schemaRefs>
@@ -10271,6 +10385,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31236C6E-5FF1-4D70-876A-B16E5BFCC253}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8608753D-D904-4E13-B351-DF9ECED19E3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10287,12 +10409,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31236C6E-5FF1-4D70-876A-B16E5BFCC253}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/New_Apex_Users.xlsx
+++ b/New_Apex_Users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27823"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tmgolf-my.sharepoint.com/personal/brandon_yates_taylormadegolf_com/Documents/Documents/GitHub/Apex-Revamped/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tmgolf.sharepoint.com/sites/GarrisonIT/Shared Documents/Apex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1999" documentId="13_ncr:1_{8E09E700-47DA-4F61-8A8F-DCB1AD3AABF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFF14AD8-2114-4F61-95CA-2EA7F8768BDE}"/>
+  <xr:revisionPtr revIDLastSave="1941" documentId="13_ncr:1_{8E09E700-47DA-4F61-8A8F-DCB1AD3AABF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA72482B-3899-4062-943C-6C953CF1681E}"/>
   <bookViews>
-    <workbookView xWindow="-21315" yWindow="825" windowWidth="17250" windowHeight="9990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="680">
   <si>
     <t>First Name</t>
   </si>
@@ -216,6 +216,108 @@
     <t>Axton</t>
   </si>
   <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Jossa</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Watts</t>
+  </si>
+  <si>
+    <t>Withney</t>
+  </si>
+  <si>
+    <t>Joel</t>
+  </si>
+  <si>
+    <t>Duckenson</t>
+  </si>
+  <si>
+    <t>Bordenave</t>
+  </si>
+  <si>
+    <t>Houchin</t>
+  </si>
+  <si>
+    <t>Carolyn</t>
+  </si>
+  <si>
+    <t>Billings</t>
+  </si>
+  <si>
+    <t>Fabienne</t>
+  </si>
+  <si>
+    <t>Bon-Enfant</t>
+  </si>
+  <si>
+    <t>Meagan</t>
+  </si>
+  <si>
+    <t>Bullock</t>
+  </si>
+  <si>
+    <t>Gregory</t>
+  </si>
+  <si>
+    <t>Serin</t>
+  </si>
+  <si>
+    <t>Marcius</t>
+  </si>
+  <si>
+    <t>Jeantot</t>
+  </si>
+  <si>
+    <t>Marie Francia</t>
+  </si>
+  <si>
+    <t>Menadui</t>
+  </si>
+  <si>
+    <t>Wideline</t>
+  </si>
+  <si>
+    <t>Civil</t>
+  </si>
+  <si>
+    <t>Benise</t>
+  </si>
+  <si>
+    <t>Beaubrun</t>
+  </si>
+  <si>
+    <t>Ebilla</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Lourdes Maille</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Jhayden</t>
+  </si>
+  <si>
+    <t>Thigpen</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Burtsfield</t>
+  </si>
+  <si>
+    <t>Mykel</t>
+  </si>
+  <si>
     <t>Japine</t>
   </si>
   <si>
@@ -447,12 +549,6 @@
     <t>Ralpho</t>
   </si>
   <si>
-    <t>Ebilla</t>
-  </si>
-  <si>
-    <t>Joe</t>
-  </si>
-  <si>
     <t>Keene</t>
   </si>
   <si>
@@ -780,9 +876,6 @@
     <t>Lona</t>
   </si>
   <si>
-    <t>Joel</t>
-  </si>
-  <si>
     <t>Helmin</t>
   </si>
   <si>
@@ -870,9 +963,6 @@
     <t>Savely</t>
   </si>
   <si>
-    <t>Paul</t>
-  </si>
-  <si>
     <t>Lakmis</t>
   </si>
   <si>
@@ -1987,22 +2077,13 @@
   </si>
   <si>
     <t>Paulis</t>
-  </si>
-  <si>
-    <t>Python</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>General</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2261,16 +2342,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color indexed="64"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color indexed="64"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -2316,8 +2397,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FFF1182C-47B5-458A-8340-D889850809B5}" name="Table1" displayName="Table1" ref="A1:D1048550" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A1:D1048550" xr:uid="{FFF1182C-47B5-458A-8340-D889850809B5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FFF1182C-47B5-458A-8340-D889850809B5}" name="Table1" displayName="Table1" ref="A1:D1048551" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8">
+  <autoFilter ref="A1:D1048551" xr:uid="{FFF1182C-47B5-458A-8340-D889850809B5}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{62E7DE4D-AC90-4FCB-A868-E35C807438A0}" name="First Name" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{29082BBD-BCB1-4BD7-A9B4-2F9F16182832}" name="Last Name" dataDxfId="5"/>
@@ -2616,13 +2697,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="20.7109375" style="7" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" style="8" customWidth="1"/>
@@ -2630,7 +2711,7 @@
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2651,139 +2732,606 @@
       <c r="H1" s="13"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="7" t="s">
-        <v>650</v>
+        <v>5</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>651</v>
+        <v>6</v>
       </c>
       <c r="C2" s="8">
-        <v>22221</v>
+        <v>9209</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8">
+        <v>9279</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8">
+        <v>9276</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8">
+        <v>9274</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="8">
+        <v>9261</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8">
+        <v>9260</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="C3" s="8">
-        <v>22222</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="8">
+        <v>9259</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="C4" s="8">
-        <v>22223</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="C5" s="8">
-        <v>22224</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="C6" s="8">
-        <v>22225</v>
-      </c>
-      <c r="D6" s="7" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="8">
+        <v>9258</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="8">
+        <v>9257</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="8">
+        <v>9256</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="8">
+        <v>9255</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="8">
+        <v>9254</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="8">
+        <v>9253</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="8">
+        <v>9219</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="8">
+        <v>9218</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="8">
+        <v>9217</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="8">
+        <v>9216</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="8">
+        <v>9222</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="8">
+        <v>9264</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="8">
+        <v>9272</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="C7" s="8">
-        <v>22226</v>
-      </c>
-      <c r="D7" s="7" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="8">
+        <v>9220</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="8">
+        <v>11437</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="8">
+        <v>11436</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="C8" s="8">
-        <v>22227</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="C9" s="8">
-        <v>22228</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="C10" s="8">
-        <v>22229</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>16</v>
+    <row r="25" spans="1:4">
+      <c r="A25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="8">
+        <v>11435</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="8">
+        <v>11434</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="8">
+        <v>9221</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="8">
+        <v>9251</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="8">
+        <v>9252</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="8">
+        <v>9297</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="8">
+        <v>9213</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="8">
+        <v>9237</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="8">
+        <v>9241</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="8">
+        <v>9242</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="8">
+        <v>9223</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="8">
+        <v>9243</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="8">
+        <v>9288</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="8">
+        <v>9293</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="8">
+        <v>9239</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="8">
+        <v>9228</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="8">
+        <v>9296</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="8">
+        <v>9287</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="8">
+        <v>9227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="8">
+        <v>9234</v>
       </c>
     </row>
   </sheetData>
@@ -2800,23 +3348,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AB6290-216F-4273-8BAA-4D67C193A962}">
-  <dimension ref="A1:D527"/>
+  <dimension ref="A1:D502"/>
   <sheetViews>
-    <sheetView topLeftCell="A494" workbookViewId="0">
-      <selection activeCell="A503" sqref="A503:D527"/>
+    <sheetView topLeftCell="A431" workbookViewId="0">
+      <selection activeCell="F484" sqref="F484"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="C1" s="6">
         <v>11485</v>
@@ -2825,12 +3373,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="C2" s="5">
         <v>7251</v>
@@ -2839,12 +3387,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C3" s="6">
         <v>7201</v>
@@ -2853,12 +3401,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="C4" s="5">
         <v>6790</v>
@@ -2867,12 +3415,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="C5" s="6">
         <v>2920</v>
@@ -2881,12 +3429,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="C6" s="5">
         <v>7230</v>
@@ -2895,12 +3443,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="C7" s="6">
         <v>2854</v>
@@ -2909,12 +3457,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="C8" s="5">
         <v>2809</v>
@@ -2923,12 +3471,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C9" s="6">
         <v>7276</v>
@@ -2937,12 +3485,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="C10" s="5">
         <v>6774</v>
@@ -2951,12 +3499,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="C11" s="6">
         <v>2826</v>
@@ -2965,12 +3513,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="C12" s="5">
         <v>2801</v>
@@ -2979,12 +3527,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="C13" s="6">
         <v>2423</v>
@@ -2993,12 +3541,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="C14" s="5">
         <v>7244</v>
@@ -3007,12 +3555,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C15" s="6">
         <v>8320</v>
@@ -3021,12 +3569,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C16" s="5">
         <v>8322</v>
@@ -3035,12 +3583,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C17" s="6">
         <v>8330</v>
@@ -3049,12 +3597,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C18" s="5">
         <v>8800</v>
@@ -3063,12 +3611,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C19" s="6">
         <v>5143</v>
@@ -3077,12 +3625,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C20" s="5">
         <v>7575</v>
@@ -3091,12 +3639,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C21" s="6">
         <v>7577</v>
@@ -3105,12 +3653,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C22" s="5">
         <v>7578</v>
@@ -3119,12 +3667,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C23" s="6">
         <v>7579</v>
@@ -3133,12 +3681,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C24" s="5">
         <v>7583</v>
@@ -3147,12 +3695,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C25" s="6">
         <v>7584</v>
@@ -3161,12 +3709,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C26" s="5">
         <v>7585</v>
@@ -3175,12 +3723,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C27" s="6">
         <v>7588</v>
@@ -3189,12 +3737,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C28" s="5">
         <v>7589</v>
@@ -3203,12 +3751,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C29" s="6">
         <v>8301</v>
@@ -3217,12 +3765,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C30" s="5">
         <v>8302</v>
@@ -3231,12 +3779,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C31" s="6">
         <v>8303</v>
@@ -3245,12 +3793,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C32" s="5">
         <v>8304</v>
@@ -3259,12 +3807,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C33" s="6">
         <v>8305</v>
@@ -3273,12 +3821,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C34" s="5">
         <v>8306</v>
@@ -3287,12 +3835,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C35" s="6">
         <v>8307</v>
@@ -3301,12 +3849,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C36" s="5">
         <v>8308</v>
@@ -3315,12 +3863,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C37" s="6">
         <v>8309</v>
@@ -3329,12 +3877,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C38" s="5">
         <v>8310</v>
@@ -3343,12 +3891,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C39" s="6">
         <v>8311</v>
@@ -3357,12 +3905,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C40" s="5">
         <v>8312</v>
@@ -3371,12 +3919,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C41" s="6">
         <v>8313</v>
@@ -3385,12 +3933,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C42" s="5">
         <v>8315</v>
@@ -3399,12 +3947,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C43" s="6">
         <v>8316</v>
@@ -3413,12 +3961,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C44" s="5">
         <v>8317</v>
@@ -3427,12 +3975,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C45" s="6">
         <v>8318</v>
@@ -3441,12 +3989,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C46" s="5">
         <v>8319</v>
@@ -3455,12 +4003,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C47" s="6">
         <v>8321</v>
@@ -3469,12 +4017,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C48" s="5">
         <v>8323</v>
@@ -3483,12 +4031,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C49" s="6">
         <v>8324</v>
@@ -3497,12 +4045,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C50" s="5">
         <v>8325</v>
@@ -3511,12 +4059,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C51" s="6">
         <v>8326</v>
@@ -3525,12 +4073,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C52" s="5">
         <v>8328</v>
@@ -3539,12 +4087,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C53" s="6">
         <v>8329</v>
@@ -3553,12 +4101,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C54" s="5">
         <v>8801</v>
@@ -3567,12 +4115,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C55" s="6">
         <v>8802</v>
@@ -3581,12 +4129,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C56" s="5">
         <v>8804</v>
@@ -3595,12 +4143,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C57" s="6">
         <v>8807</v>
@@ -3609,12 +4157,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C58" s="5">
         <v>8808</v>
@@ -3623,12 +4171,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C59" s="6">
         <v>8809</v>
@@ -3637,12 +4185,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C60" s="5">
         <v>8810</v>
@@ -3651,12 +4199,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C61" s="6">
         <v>8811</v>
@@ -3665,12 +4213,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C62" s="5">
         <v>8812</v>
@@ -3679,12 +4227,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C63" s="6">
         <v>8813</v>
@@ -3693,12 +4241,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C64" s="5">
         <v>8815</v>
@@ -3707,12 +4255,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C65" s="6">
         <v>8816</v>
@@ -3721,12 +4269,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C66" s="5">
         <v>8817</v>
@@ -3735,12 +4283,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C67" s="6">
         <v>8819</v>
@@ -3749,12 +4297,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C68" s="5">
         <v>8880</v>
@@ -3763,12 +4311,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C69" s="6">
         <v>8820</v>
@@ -3777,12 +4325,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C70" s="5">
         <v>8821</v>
@@ -3791,12 +4339,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C71" s="6">
         <v>8822</v>
@@ -3805,12 +4353,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C72" s="5">
         <v>8823</v>
@@ -3819,12 +4367,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C73" s="6">
         <v>8879</v>
@@ -3833,12 +4381,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C74" s="5">
         <v>5135</v>
@@ -3847,12 +4395,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C75" s="6">
         <v>8878</v>
@@ -3861,12 +4409,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C76" s="5">
         <v>5121</v>
@@ -3875,12 +4423,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C77" s="6">
         <v>8825</v>
@@ -3889,12 +4437,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C78" s="5">
         <v>8826</v>
@@ -3903,12 +4451,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C79" s="6">
         <v>8827</v>
@@ -3917,12 +4465,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C80" s="5">
         <v>8877</v>
@@ -3931,12 +4479,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C81" s="6">
         <v>8829</v>
@@ -3945,12 +4493,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C82" s="5">
         <v>8876</v>
@@ -3959,12 +4507,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C83" s="6">
         <v>7006</v>
@@ -3973,12 +4521,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C84" s="5">
         <v>8830</v>
@@ -3987,12 +4535,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C85" s="6">
         <v>1937</v>
@@ -4001,12 +4549,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C86" s="5">
         <v>8832</v>
@@ -4015,12 +4563,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C87" s="6">
         <v>8833</v>
@@ -4029,12 +4577,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C88" s="5">
         <v>6848</v>
@@ -4043,12 +4591,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C89" s="6">
         <v>1946</v>
@@ -4057,12 +4605,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C90" s="5">
         <v>8875</v>
@@ -4071,12 +4619,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C91" s="6">
         <v>8834</v>
@@ -4085,12 +4633,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C92" s="5">
         <v>1936</v>
@@ -4099,12 +4647,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C93" s="6">
         <v>8874</v>
@@ -4113,12 +4661,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C94" s="5">
         <v>8835</v>
@@ -4127,12 +4675,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C95" s="6">
         <v>1960</v>
@@ -4141,12 +4689,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C96" s="5">
         <v>8836</v>
@@ -4155,12 +4703,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C97" s="6">
         <v>8873</v>
@@ -4169,12 +4717,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C98" s="5">
         <v>8837</v>
@@ -4183,12 +4731,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C99" s="6">
         <v>8838</v>
@@ -4197,12 +4745,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C100" s="5">
         <v>7017</v>
@@ -4211,12 +4759,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C101" s="6">
         <v>7018</v>
@@ -4225,12 +4773,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C102" s="5">
         <v>8839</v>
@@ -4239,12 +4787,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C103" s="6">
         <v>8855</v>
@@ -4253,12 +4801,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C104" s="5">
         <v>1975</v>
@@ -4267,12 +4815,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C105" s="6">
         <v>8853</v>
@@ -4281,12 +4829,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C106" s="5">
         <v>8890</v>
@@ -4295,12 +4843,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C107" s="6">
         <v>6850</v>
@@ -4309,12 +4857,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C108" s="5">
         <v>6818</v>
@@ -4323,12 +4871,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C109" s="6">
         <v>1981</v>
@@ -4337,12 +4885,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C110" s="5">
         <v>7023</v>
@@ -4351,12 +4899,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C111" s="6">
         <v>8889</v>
@@ -4365,12 +4913,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C112" s="5">
         <v>8888</v>
@@ -4379,12 +4927,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C113" s="6">
         <v>8887</v>
@@ -4393,12 +4941,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C114" s="5">
         <v>8886</v>
@@ -4407,12 +4955,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C115" s="6">
         <v>8885</v>
@@ -4421,12 +4969,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C116" s="5">
         <v>8884</v>
@@ -4435,12 +4983,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C117" s="6">
         <v>8883</v>
@@ -4449,12 +4997,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="A118" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C118" s="5">
         <v>8882</v>
@@ -4463,12 +5011,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="A119" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C119" s="6">
         <v>8881</v>
@@ -4477,12 +5025,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="A120" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C120" s="5">
         <v>8899</v>
@@ -4491,12 +5039,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="A121" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C121" s="6">
         <v>8898</v>
@@ -4505,12 +5053,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="A122" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C122" s="5">
         <v>1925</v>
@@ -4519,12 +5067,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4">
       <c r="A123" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C123" s="6">
         <v>1958</v>
@@ -4533,12 +5081,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C124" s="5">
         <v>8897</v>
@@ -4547,12 +5095,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4">
       <c r="A125" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C125" s="6">
         <v>8896</v>
@@ -4561,12 +5109,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="A126" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C126" s="5">
         <v>8895</v>
@@ -4575,12 +5123,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4">
       <c r="A127" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C127" s="6">
         <v>6819</v>
@@ -4589,12 +5137,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4">
       <c r="A128" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C128" s="5">
         <v>1959</v>
@@ -4603,12 +5151,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4">
       <c r="A129" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C129" s="6">
         <v>8894</v>
@@ -4617,12 +5165,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4">
       <c r="A130" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C130" s="5">
         <v>8893</v>
@@ -4631,12 +5179,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4">
       <c r="A131" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C131" s="6">
         <v>8892</v>
@@ -4645,12 +5193,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4">
       <c r="A132" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C132" s="5">
         <v>8891</v>
@@ -4659,12 +5207,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4">
       <c r="A133" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C133" s="6">
         <v>8856</v>
@@ -4673,12 +5221,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4">
       <c r="A134" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C134" s="5">
         <v>1953</v>
@@ -4687,12 +5235,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4">
       <c r="A135" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C135" s="6">
         <v>6464</v>
@@ -4701,12 +5249,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4">
       <c r="A136" s="1" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="C136" s="6">
         <v>7216</v>
@@ -4715,12 +5263,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4">
       <c r="A137" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="C137" s="5">
         <v>7248</v>
@@ -4729,12 +5277,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="C138" s="6">
         <v>6799</v>
@@ -4743,12 +5291,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="C139" s="5">
         <v>6788</v>
@@ -4757,12 +5305,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="C140" s="6">
         <v>7247</v>
@@ -4771,12 +5319,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4">
       <c r="A141" s="2" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="C141" s="5">
         <v>7228</v>
@@ -4785,12 +5333,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4">
       <c r="A142" s="1" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="C142" s="6">
         <v>7295</v>
@@ -4799,12 +5347,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4">
       <c r="A143" s="2" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="C143" s="5">
         <v>7208</v>
@@ -4813,12 +5361,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="C144" s="6">
         <v>2725</v>
@@ -4827,12 +5375,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4">
       <c r="A145" s="2" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="C145" s="5">
         <v>7206</v>
@@ -4841,12 +5389,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4">
       <c r="A146" s="1" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="C146" s="6">
         <v>2807</v>
@@ -4855,12 +5403,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4">
       <c r="A147" s="2" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="C147" s="5">
         <v>2784</v>
@@ -4869,12 +5417,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4">
       <c r="A148" s="1" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="C148" s="6">
         <v>2923</v>
@@ -4883,12 +5431,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4">
       <c r="A149" s="2" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="C149" s="5">
         <v>2803</v>
@@ -4897,12 +5445,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4">
       <c r="A150" s="1" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="C150" s="6">
         <v>7219</v>
@@ -4911,12 +5459,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4">
       <c r="A151" s="2" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="C151" s="5">
         <v>7241</v>
@@ -4925,12 +5473,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4">
       <c r="A152" s="1" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="C152" s="6">
         <v>7260</v>
@@ -4939,12 +5487,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4">
       <c r="A153" s="2" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="C153" s="5">
         <v>2851</v>
@@ -4953,12 +5501,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4">
       <c r="A154" s="1" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="C154" s="6">
         <v>2786</v>
@@ -4967,12 +5515,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4">
       <c r="A155" s="10" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="C155" s="5">
         <v>2026</v>
@@ -4981,12 +5529,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4">
       <c r="A156" s="1" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="C156" s="6">
         <v>2038</v>
@@ -4995,12 +5543,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4">
       <c r="A157" s="2" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="C157" s="5">
         <v>4675</v>
@@ -5009,12 +5557,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4">
       <c r="A158" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="C158" s="6">
         <v>11484</v>
@@ -5023,12 +5571,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4">
       <c r="A159" s="2" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="C159" s="5">
         <v>2089</v>
@@ -5037,12 +5585,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4">
       <c r="A160" s="1" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="C160" s="6">
         <v>2195</v>
@@ -5051,12 +5599,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4">
       <c r="A161" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="C161" s="5">
         <v>2175</v>
@@ -5065,12 +5613,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4">
       <c r="A162" s="1" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="C162" s="6">
         <v>7218</v>
@@ -5079,12 +5627,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4">
       <c r="A163" s="2" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="C163" s="5">
         <v>2001</v>
@@ -5093,12 +5641,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4">
       <c r="A164" s="1" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C164" s="6">
         <v>6466</v>
@@ -5107,12 +5655,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4">
       <c r="A165" s="2" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C165" s="5">
         <v>6477</v>
@@ -5121,12 +5669,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4">
       <c r="A166" s="1" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C166" s="6">
         <v>6475</v>
@@ -5135,12 +5683,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4">
       <c r="A167" s="2" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C167" s="5">
         <v>6465</v>
@@ -5149,12 +5697,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4">
       <c r="A168" s="1" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C168" s="6">
         <v>6471</v>
@@ -5163,12 +5711,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4">
       <c r="A169" s="2" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C169" s="5">
         <v>6469</v>
@@ -5177,12 +5725,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4">
       <c r="A170" s="1" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C170" s="6">
         <v>6476</v>
@@ -5191,12 +5739,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="C171" s="6">
         <v>2919</v>
@@ -5205,12 +5753,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4">
       <c r="A172" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="C172" s="5">
         <v>6717</v>
@@ -5219,12 +5767,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4">
       <c r="A173" s="1" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C173" s="6">
         <v>2093</v>
@@ -5233,12 +5781,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4">
       <c r="A174" s="2" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="C174" s="5">
         <v>2755</v>
@@ -5247,12 +5795,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4">
       <c r="A175" s="1" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="C175" s="6">
         <v>7226</v>
@@ -5261,12 +5809,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4">
       <c r="A176" s="2" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="C176" s="5">
         <v>2196</v>
@@ -5275,12 +5823,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4">
       <c r="A177" s="1" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="C177" s="6">
         <v>2128</v>
@@ -5289,12 +5837,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4">
       <c r="A178" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="C178" s="6">
         <v>7145</v>
@@ -5303,12 +5851,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4">
       <c r="A179" s="2" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="C179" s="5">
         <v>8493</v>
@@ -5317,12 +5865,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4">
       <c r="A180" s="1" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="C180" s="6">
         <v>8366</v>
@@ -5331,12 +5879,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4">
       <c r="A181" s="2" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="C181" s="5">
         <v>8563</v>
@@ -5345,12 +5893,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4">
       <c r="A182" s="1" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="C182" s="6">
         <v>8582</v>
@@ -5359,12 +5907,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4">
       <c r="A183" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="C183" s="5">
         <v>7286</v>
@@ -5373,12 +5921,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4">
       <c r="A184" s="1" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="C184" s="6">
         <v>7229</v>
@@ -5387,12 +5935,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4">
       <c r="A185" s="2" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="C185" s="5">
         <v>8497</v>
@@ -5401,12 +5949,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4">
       <c r="A186" s="1" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="C186" s="6">
         <v>8536</v>
@@ -5415,12 +5963,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4">
       <c r="A187" s="2" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="C187" s="5">
         <v>8560</v>
@@ -5429,12 +5977,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4">
       <c r="A188" s="1" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="C188" s="6">
         <v>8515</v>
@@ -5443,12 +5991,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4">
       <c r="A189" s="2" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="C189" s="5">
         <v>8422</v>
@@ -5457,12 +6005,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4">
       <c r="A190" s="1" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="C190" s="6">
         <v>8412</v>
@@ -5471,12 +6019,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4">
       <c r="A191" s="2" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="C191" s="5">
         <v>8389</v>
@@ -5485,12 +6033,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4">
       <c r="A192" s="1" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="C192" s="6">
         <v>8484</v>
@@ -5499,12 +6047,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4">
       <c r="A193" s="2" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="C193" s="5">
         <v>7318</v>
@@ -5513,12 +6061,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4">
       <c r="A194" s="1" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="C194" s="6">
         <v>8496</v>
@@ -5527,12 +6075,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4">
       <c r="A195" s="2" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="C195" s="5">
         <v>6707</v>
@@ -5541,12 +6089,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4">
       <c r="A196" s="1" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="C196" s="6">
         <v>8546</v>
@@ -5555,12 +6103,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4">
       <c r="A197" s="2" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="C197" s="5">
         <v>8457</v>
@@ -5569,12 +6117,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4">
       <c r="A198" s="1" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="C198" s="6">
         <v>2844</v>
@@ -5583,12 +6131,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4">
       <c r="A199" s="2" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="C199" s="5">
         <v>7202</v>
@@ -5597,12 +6145,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4">
       <c r="A200" s="1" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="C200" s="6">
         <v>7213</v>
@@ -5611,12 +6159,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4">
       <c r="A201" s="2" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="C201" s="5">
         <v>7023</v>
@@ -5625,12 +6173,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4">
       <c r="A202" s="1" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="C202" s="6">
         <v>7230</v>
@@ -5639,12 +6187,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4">
       <c r="A203" s="2" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="C203" s="5">
         <v>8826</v>
@@ -5653,12 +6201,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4">
       <c r="A204" s="1" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="C204" s="6">
         <v>2001</v>
@@ -5667,12 +6215,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4">
       <c r="A205" s="2" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="C205" s="5">
         <v>2196</v>
@@ -5681,12 +6229,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4">
       <c r="A206" s="1" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="C206" s="6">
         <v>11479</v>
@@ -5695,12 +6243,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4">
       <c r="A207" s="2" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="C207" s="5">
         <v>11480</v>
@@ -5709,12 +6257,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4">
       <c r="A208" s="1" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="C208" s="6">
         <v>11481</v>
@@ -5723,12 +6271,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4">
       <c r="A209" s="2" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="C209" s="5">
         <v>11477</v>
@@ -5737,12 +6285,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4">
       <c r="A210" s="1" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="C210" s="6">
         <v>11469</v>
@@ -5751,12 +6299,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4">
       <c r="A211" s="2" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="C211" s="5">
         <v>11475</v>
@@ -5765,12 +6313,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4">
       <c r="A212" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="C212" s="6">
         <v>11478</v>
@@ -5779,12 +6327,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4">
       <c r="A213" s="2" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="C213" s="5">
         <v>11474</v>
@@ -5793,12 +6341,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4">
       <c r="A214" s="1" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="C214" s="6">
         <v>11473</v>
@@ -5807,12 +6355,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4">
       <c r="A215" s="2" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="C215" s="5">
         <v>11471</v>
@@ -5821,9 +6369,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4">
       <c r="A216" s="1" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="B216" s="1">
         <v>6474</v>
@@ -5835,9 +6383,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4">
       <c r="A217" s="2" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="B217" s="2">
         <v>6470</v>
@@ -5849,9 +6397,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4">
       <c r="A218" s="1" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="B218" s="1">
         <v>8867</v>
@@ -5863,9 +6411,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4">
       <c r="A219" s="2" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="B219" s="2">
         <v>6472</v>
@@ -5877,9 +6425,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4">
       <c r="A220" s="1" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="B220" s="1">
         <v>8864</v>
@@ -5891,9 +6439,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4">
       <c r="A221" s="2" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="B221" s="2">
         <v>8868</v>
@@ -5905,9 +6453,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4">
       <c r="A222" s="1" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="B222" s="1">
         <v>6467</v>
@@ -5919,9 +6467,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4">
       <c r="A223" s="2" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="B223" s="2">
         <v>6440</v>
@@ -5933,9 +6481,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4">
       <c r="A224" s="1" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="B224" s="1">
         <v>6400</v>
@@ -5947,9 +6495,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4">
       <c r="A225" s="2" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="B225" s="2">
         <v>8866</v>
@@ -5961,26 +6509,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4">
       <c r="A226" s="1" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="C226" s="6">
         <v>11465</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
       <c r="A227" s="2" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="C227" s="5">
         <v>11466</v>
@@ -5989,12 +6537,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4">
       <c r="A228" s="1" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="C228" s="6">
         <v>8865</v>
@@ -6003,12 +6551,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4">
       <c r="A229" s="2" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="C229" s="5">
         <v>6413</v>
@@ -6017,12 +6565,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4">
       <c r="A230" s="1" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="C230" s="6">
         <v>6410</v>
@@ -6031,12 +6579,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4">
       <c r="A231" s="2" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="C231" s="5">
         <v>6438</v>
@@ -6045,12 +6593,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4">
       <c r="A232" s="1" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="C232" s="6">
         <v>6414</v>
@@ -6059,12 +6607,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4">
       <c r="A233" s="2" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="C233" s="5">
         <v>6405</v>
@@ -6073,12 +6621,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4">
       <c r="A234" s="1" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="C234" s="6">
         <v>6432</v>
@@ -6087,12 +6635,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4">
       <c r="A235" s="2" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="C235" s="5">
         <v>6421</v>
@@ -6101,12 +6649,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4">
       <c r="A236" s="1" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="C236" s="6">
         <v>6456</v>
@@ -6115,12 +6663,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4">
       <c r="A237" s="2" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="C237" s="5">
         <v>6436</v>
@@ -6129,12 +6677,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4">
       <c r="A238" s="1" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>247</v>
+        <v>64</v>
       </c>
       <c r="C238" s="6">
         <v>1987</v>
@@ -6143,12 +6691,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4">
       <c r="A239" s="2" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>247</v>
+        <v>64</v>
       </c>
       <c r="C239" s="5">
         <v>1995</v>
@@ -6157,12 +6705,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4">
       <c r="A240" s="1" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="C240" s="6">
         <v>1999</v>
@@ -6171,12 +6719,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4">
       <c r="A241" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="C241" s="5">
         <v>1993</v>
@@ -6185,12 +6733,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4">
       <c r="A242" s="1" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="C242" s="6">
         <v>6462</v>
@@ -6199,12 +6747,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4">
       <c r="A243" s="2" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="C243" s="5">
         <v>6408</v>
@@ -6213,9 +6761,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4">
       <c r="A244" s="1" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>58</v>
@@ -6227,12 +6775,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4">
       <c r="A245" s="2" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="C245" s="5">
         <v>6441</v>
@@ -6241,12 +6789,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4">
       <c r="A246" s="1" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="C246" s="6">
         <v>8860</v>
@@ -6255,12 +6803,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4">
       <c r="A247" s="2" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="C247" s="5">
         <v>8869</v>
@@ -6269,12 +6817,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4">
       <c r="A248" s="1" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="C248" s="6">
         <v>8863</v>
@@ -6283,12 +6831,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4">
       <c r="A249" s="2" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="C249" s="5">
         <v>8862</v>
@@ -6297,12 +6845,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4">
       <c r="A250" s="1" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="C250" s="6">
         <v>8859</v>
@@ -6311,12 +6859,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4">
       <c r="A251" s="2" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="C251" s="5">
         <v>6463</v>
@@ -6325,12 +6873,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4">
       <c r="A252" s="1" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="C252" s="6">
         <v>6473</v>
@@ -6339,12 +6887,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4">
       <c r="A253" s="2" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="C253" s="5">
         <v>6468</v>
@@ -6353,12 +6901,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4">
       <c r="A254" s="1" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="C254" s="6">
         <v>8861</v>
@@ -6367,12 +6915,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4">
       <c r="A255" s="2" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="C255" s="5">
         <v>6401</v>
@@ -6381,12 +6929,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4">
       <c r="A256" s="1" t="s">
-        <v>277</v>
+        <v>87</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="C256" s="6">
         <v>1994</v>
@@ -6395,12 +6943,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4">
       <c r="A257" s="2" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="C257" s="5">
         <v>6450</v>
@@ -6409,12 +6957,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4">
       <c r="A258" s="1" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="C258" s="6">
         <v>6426</v>
@@ -6423,12 +6971,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4">
       <c r="A259" s="2" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="C259" s="5">
         <v>6402</v>
@@ -6437,12 +6985,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4">
       <c r="A260" s="1" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="C260" s="6">
         <v>6420</v>
@@ -6451,12 +6999,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4">
       <c r="A261" s="2" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="C261" s="5">
         <v>6443</v>
@@ -6465,12 +7013,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4">
       <c r="A262" s="1" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="C262" s="6">
         <v>6435</v>
@@ -6479,12 +7027,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4">
       <c r="A263" s="2" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="C263" s="5">
         <v>6417</v>
@@ -6493,12 +7041,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4">
       <c r="A264" s="1" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="C264" s="6">
         <v>6457</v>
@@ -6507,12 +7055,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4">
       <c r="A265" s="2" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="C265" s="5">
         <v>6418</v>
@@ -6521,12 +7069,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4">
       <c r="A266" s="1" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="C266" s="6">
         <v>6434</v>
@@ -6535,12 +7083,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4">
       <c r="A267" s="2" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="C267" s="5">
         <v>6406</v>
@@ -6549,12 +7097,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4">
       <c r="A268" s="1" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="C268" s="6">
         <v>6425</v>
@@ -6563,12 +7111,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4">
       <c r="A269" s="1" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="C269" s="6">
         <v>11462</v>
@@ -6577,12 +7125,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4">
       <c r="A270" s="2" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="C270" s="5">
         <v>11464</v>
@@ -6591,12 +7139,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4">
       <c r="A271" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="B271" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="C271">
         <v>8090</v>
@@ -6605,12 +7153,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4">
       <c r="A272" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="B272" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="C272">
         <v>2684</v>
@@ -6619,12 +7167,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4">
       <c r="A273" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="B273" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="C273">
         <v>7263</v>
@@ -6633,12 +7181,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4">
       <c r="A274" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="B274" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="C274">
         <v>2465</v>
@@ -6647,12 +7195,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4">
       <c r="A275" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="B275" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="C275">
         <v>2918</v>
@@ -6661,12 +7209,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4">
       <c r="A276" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="B276" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="C276">
         <v>8530</v>
@@ -6675,12 +7223,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4">
       <c r="A277" t="s">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="B277" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="C277">
         <v>2195</v>
@@ -6689,12 +7237,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4">
       <c r="A278" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="B278" t="s">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="C278">
         <v>7145</v>
@@ -6703,9 +7251,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4">
       <c r="A279" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="B279" t="s">
         <v>38</v>
@@ -6717,12 +7265,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4">
       <c r="A280" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="B280" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="C280">
         <v>8457</v>
@@ -6731,12 +7279,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4">
       <c r="A281" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="B281" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="C281">
         <v>6764</v>
@@ -6745,12 +7293,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4">
       <c r="A282" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="B282" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="C282">
         <v>8567</v>
@@ -6759,12 +7307,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4">
       <c r="A283" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="B283" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="C283">
         <v>7219</v>
@@ -6773,12 +7321,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4">
       <c r="A284" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="B284" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="C284">
         <v>8581</v>
@@ -6787,12 +7335,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4">
       <c r="A285" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="B285" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="C285">
         <v>7226</v>
@@ -6801,12 +7349,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4">
       <c r="A286" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="B286" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="C286">
         <v>8192</v>
@@ -6815,12 +7363,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4">
       <c r="A287" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="B287" t="s">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="C287">
         <v>8371</v>
@@ -6829,12 +7377,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4">
       <c r="A288" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="B288" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="C288">
         <v>8546</v>
@@ -6843,12 +7391,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4">
       <c r="A289" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="B289" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="C289">
         <v>7248</v>
@@ -6857,12 +7405,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4">
       <c r="A290" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="B290" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
       <c r="C290">
         <v>8860</v>
@@ -6871,12 +7419,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4">
       <c r="A291" t="s">
-        <v>338</v>
+        <v>368</v>
       </c>
       <c r="B291" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="C291">
         <v>6438</v>
@@ -6885,12 +7433,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4">
       <c r="A292" t="s">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="B292" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="C292">
         <v>6432</v>
@@ -6899,12 +7447,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4">
       <c r="A293" t="s">
-        <v>342</v>
+        <v>372</v>
       </c>
       <c r="B293" t="s">
-        <v>343</v>
+        <v>373</v>
       </c>
       <c r="C293">
         <v>6417</v>
@@ -6913,12 +7461,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4">
       <c r="A294" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="B294" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="C294">
         <v>6420</v>
@@ -6927,12 +7475,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4">
       <c r="A295" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B295" t="s">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="C295">
         <v>6426</v>
@@ -6941,12 +7489,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4">
       <c r="A296" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="B296" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="C296">
         <v>6414</v>
@@ -6955,12 +7503,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4">
       <c r="A297" t="s">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="B297" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="C297">
         <v>8859</v>
@@ -6969,12 +7517,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4">
       <c r="A298" t="s">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="B298" t="s">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="C298">
         <v>11458</v>
@@ -6983,12 +7531,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4">
       <c r="A299" t="s">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="B299" t="s">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="C299">
         <v>11454</v>
@@ -6997,12 +7545,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4">
       <c r="A300" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="B300" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="C300">
         <v>11451</v>
@@ -7011,12 +7559,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4">
       <c r="A301" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="B301" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="C301">
         <v>6404</v>
@@ -7025,12 +7573,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4">
       <c r="A302" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="B302" t="s">
-        <v>247</v>
+        <v>64</v>
       </c>
       <c r="C302">
         <v>6458</v>
@@ -7039,12 +7587,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4">
       <c r="A303" t="s">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="B303" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="C303">
         <v>6412</v>
@@ -7053,12 +7601,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4">
       <c r="A304" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="B304" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="C304">
         <v>1986</v>
@@ -7067,12 +7615,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4">
       <c r="A305" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B305" t="s">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="C305">
         <v>6459</v>
@@ -7081,12 +7629,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4">
       <c r="A306" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="B306" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="C306">
         <v>6437</v>
@@ -7095,12 +7643,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4">
       <c r="A307" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="B307" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="C307">
         <v>6430</v>
@@ -7109,12 +7657,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4">
       <c r="A308" t="s">
-        <v>359</v>
+        <v>389</v>
       </c>
       <c r="B308" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="C308">
         <v>6424</v>
@@ -7123,12 +7671,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4">
       <c r="A309" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="B309" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="C309">
         <v>6451</v>
@@ -7137,9 +7685,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4">
       <c r="A310" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
       <c r="B310" t="s">
         <v>38</v>
@@ -7151,12 +7699,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4">
       <c r="A311" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="B311" t="s">
-        <v>364</v>
+        <v>394</v>
       </c>
       <c r="C311">
         <v>6419</v>
@@ -7165,12 +7713,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4">
       <c r="A312" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="B312" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="C312">
         <v>6411</v>
@@ -7179,12 +7727,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4">
       <c r="A313" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="B313" t="s">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="C313">
         <v>6407</v>
@@ -7193,12 +7741,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4">
       <c r="A314" t="s">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="B314" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="C314">
         <v>1996</v>
@@ -7207,12 +7755,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4">
       <c r="A315" t="s">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="B315" t="s">
-        <v>369</v>
+        <v>399</v>
       </c>
       <c r="C315">
         <v>6454</v>
@@ -7221,12 +7769,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4">
       <c r="A316" t="s">
         <v>19</v>
       </c>
       <c r="B316" t="s">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="C316">
         <v>6409</v>
@@ -7235,12 +7783,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4">
       <c r="A317" t="s">
-        <v>371</v>
+        <v>401</v>
       </c>
       <c r="B317" t="s">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="C317">
         <v>6452</v>
@@ -7249,12 +7797,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4">
       <c r="A318" t="s">
-        <v>373</v>
+        <v>403</v>
       </c>
       <c r="B318" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="C318">
         <v>6449</v>
@@ -7263,12 +7811,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4">
       <c r="A319" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="B319" t="s">
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="C319">
         <v>6448</v>
@@ -7277,12 +7825,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4">
       <c r="A320" t="s">
-        <v>377</v>
+        <v>407</v>
       </c>
       <c r="B320" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="C320">
         <v>6460</v>
@@ -7291,12 +7839,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4">
       <c r="A321" t="s">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="B321" t="s">
-        <v>379</v>
+        <v>409</v>
       </c>
       <c r="C321">
         <v>1990</v>
@@ -7305,12 +7853,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4">
       <c r="A322" t="s">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="B322" t="s">
-        <v>381</v>
+        <v>411</v>
       </c>
       <c r="C322">
         <v>1983</v>
@@ -7319,12 +7867,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4">
       <c r="A323" t="s">
-        <v>382</v>
+        <v>412</v>
       </c>
       <c r="B323" t="s">
-        <v>383</v>
+        <v>413</v>
       </c>
       <c r="C323">
         <v>6445</v>
@@ -7333,12 +7881,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4">
       <c r="A324" t="s">
-        <v>384</v>
+        <v>414</v>
       </c>
       <c r="B324" t="s">
-        <v>385</v>
+        <v>415</v>
       </c>
       <c r="C324">
         <v>6444</v>
@@ -7347,12 +7895,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4">
       <c r="A325" t="s">
-        <v>386</v>
+        <v>416</v>
       </c>
       <c r="B325" t="s">
-        <v>387</v>
+        <v>417</v>
       </c>
       <c r="C325">
         <v>1998</v>
@@ -7361,12 +7909,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4">
       <c r="A326" t="s">
-        <v>388</v>
+        <v>418</v>
       </c>
       <c r="B326" t="s">
-        <v>389</v>
+        <v>419</v>
       </c>
       <c r="C326">
         <v>6427</v>
@@ -7375,12 +7923,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4">
       <c r="A327" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="B327" t="s">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="C327">
         <v>1966</v>
@@ -7389,12 +7937,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4">
       <c r="A328" t="s">
-        <v>391</v>
+        <v>421</v>
       </c>
       <c r="B328" t="s">
-        <v>392</v>
+        <v>422</v>
       </c>
       <c r="C328">
         <v>6429</v>
@@ -7403,12 +7951,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4">
       <c r="A329" t="s">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="B329" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="C329">
         <v>6403</v>
@@ -7417,12 +7965,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4">
       <c r="A330" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="B330" t="s">
-        <v>395</v>
+        <v>425</v>
       </c>
       <c r="C330">
         <v>6423</v>
@@ -7431,9 +7979,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4">
       <c r="A331" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="B331" t="s">
         <v>24</v>
@@ -7445,12 +7993,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4">
       <c r="A332" t="s">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="B332" t="s">
-        <v>398</v>
+        <v>428</v>
       </c>
       <c r="C332">
         <v>6416</v>
@@ -7459,12 +8007,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4">
       <c r="A333" t="s">
-        <v>399</v>
+        <v>429</v>
       </c>
       <c r="B333" t="s">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="C333">
         <v>6461</v>
@@ -7473,12 +8021,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4">
       <c r="A334" t="s">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="B334" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="C334">
         <v>1988</v>
@@ -7487,12 +8035,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4">
       <c r="A335" t="s">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="B335" t="s">
-        <v>403</v>
+        <v>433</v>
       </c>
       <c r="C335">
         <v>6433</v>
@@ -7501,12 +8049,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4">
       <c r="A336" s="1" t="s">
-        <v>404</v>
+        <v>434</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="C336" s="6">
         <v>6431</v>
@@ -7515,12 +8063,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4">
       <c r="A337" s="2" t="s">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>405</v>
+        <v>435</v>
       </c>
       <c r="C337" s="5">
         <v>6438</v>
@@ -7529,12 +8077,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4">
       <c r="A338" s="1" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>407</v>
+        <v>437</v>
       </c>
       <c r="C338" s="6">
         <v>8859</v>
@@ -7543,12 +8091,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4">
       <c r="A339" s="2" t="s">
-        <v>408</v>
+        <v>438</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
       <c r="C339" s="5">
         <v>6424</v>
@@ -7557,12 +8105,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4">
       <c r="A340" s="1" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="C340" s="6">
         <v>1997</v>
@@ -7571,12 +8119,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4">
       <c r="A341" s="2" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>412</v>
+        <v>442</v>
       </c>
       <c r="C341" s="5">
         <v>1989</v>
@@ -7585,12 +8133,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4">
       <c r="A342" s="1" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>414</v>
+        <v>444</v>
       </c>
       <c r="C342" s="6">
         <v>6509</v>
@@ -7599,12 +8147,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4">
       <c r="A343" s="2" t="s">
-        <v>415</v>
+        <v>445</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>416</v>
+        <v>446</v>
       </c>
       <c r="C343" s="5">
         <v>6508</v>
@@ -7613,12 +8161,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4">
       <c r="A344" s="1" t="s">
-        <v>417</v>
+        <v>447</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>418</v>
+        <v>448</v>
       </c>
       <c r="C344" s="6">
         <v>6507</v>
@@ -7627,12 +8175,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4">
       <c r="A345" s="2" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="C345" s="5">
         <v>6506</v>
@@ -7641,12 +8189,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4">
       <c r="A346" s="1" t="s">
-        <v>421</v>
+        <v>451</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>422</v>
+        <v>452</v>
       </c>
       <c r="C346" s="6">
         <v>6505</v>
@@ -7655,12 +8203,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4">
       <c r="A347" s="2" t="s">
-        <v>423</v>
+        <v>453</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="C347" s="5">
         <v>6504</v>
@@ -7669,12 +8217,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4">
       <c r="A348" s="1" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="C348" s="6">
         <v>6503</v>
@@ -7683,12 +8231,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4">
       <c r="A349" s="2" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="C349" s="5">
         <v>6502</v>
@@ -7697,12 +8245,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4">
       <c r="A350" s="1" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="C350" s="6">
         <v>6501</v>
@@ -7711,12 +8259,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4">
       <c r="A351" s="2" t="s">
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="C351" s="5">
         <v>6500</v>
@@ -7725,12 +8273,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4">
       <c r="A352" s="1" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
       <c r="C352" s="6">
         <v>6447</v>
@@ -7739,12 +8287,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4">
       <c r="A353" s="2" t="s">
-        <v>433</v>
+        <v>463</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="C353" s="5">
         <v>6446</v>
@@ -7753,12 +8301,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4">
       <c r="A354" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="C354" s="6">
         <v>6422</v>
@@ -7767,12 +8315,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4">
       <c r="A355" s="2" t="s">
-        <v>434</v>
+        <v>464</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="C355" s="5">
         <v>6415</v>
@@ -7781,12 +8329,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4">
       <c r="A356" s="1" t="s">
-        <v>436</v>
+        <v>466</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>437</v>
+        <v>467</v>
       </c>
       <c r="C356" s="6">
         <v>1924</v>
@@ -7795,12 +8343,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4">
       <c r="A357" s="2" t="s">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>439</v>
+        <v>469</v>
       </c>
       <c r="C357" s="5">
         <v>11448</v>
@@ -7809,12 +8357,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4">
       <c r="A358" s="1" t="s">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>441</v>
+        <v>471</v>
       </c>
       <c r="C358" s="6">
         <v>6513</v>
@@ -7823,12 +8371,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4">
       <c r="A359" s="2" t="s">
-        <v>442</v>
+        <v>472</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="C359" s="5">
         <v>6512</v>
@@ -7837,12 +8385,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4">
       <c r="A360" s="1" t="s">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="C360" s="6">
         <v>6511</v>
@@ -7851,12 +8399,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4">
       <c r="A361" s="2" t="s">
-        <v>277</v>
+        <v>87</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="C361" s="5">
         <v>6510</v>
@@ -7865,12 +8413,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4">
       <c r="A362" s="1" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="C362" s="6">
         <v>6523</v>
@@ -7879,12 +8427,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4">
       <c r="A363" s="2" t="s">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="C363" s="5">
         <v>6581</v>
@@ -7893,12 +8441,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4">
       <c r="A364" s="1" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>247</v>
+        <v>64</v>
       </c>
       <c r="C364" s="6">
         <v>6527</v>
@@ -7907,12 +8455,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4">
       <c r="A365" s="2" t="s">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>452</v>
+        <v>482</v>
       </c>
       <c r="C365" s="5">
         <v>6522</v>
@@ -7921,12 +8469,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4">
       <c r="A366" s="1" t="s">
-        <v>453</v>
+        <v>483</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="C366" s="6">
         <v>6580</v>
@@ -7935,12 +8483,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4">
       <c r="A367" s="2" t="s">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="C367" s="5">
         <v>6530</v>
@@ -7949,12 +8497,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4">
       <c r="A368" s="1" t="s">
-        <v>456</v>
+        <v>486</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="C368" s="6">
         <v>6526</v>
@@ -7963,12 +8511,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4">
       <c r="A369" s="2" t="s">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="C369" s="5">
         <v>6535</v>
@@ -7977,12 +8525,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4">
       <c r="A370" s="1" t="s">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>461</v>
+        <v>491</v>
       </c>
       <c r="C370" s="6">
         <v>6524</v>
@@ -7991,12 +8539,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4">
       <c r="A371" s="2" t="s">
-        <v>462</v>
+        <v>492</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>463</v>
+        <v>493</v>
       </c>
       <c r="C371" s="5">
         <v>6531</v>
@@ -8005,12 +8553,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4">
       <c r="A372" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>464</v>
+        <v>494</v>
       </c>
       <c r="C372" s="6">
         <v>6533</v>
@@ -8019,12 +8567,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4">
       <c r="A373" s="2" t="s">
-        <v>465</v>
+        <v>495</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>466</v>
+        <v>496</v>
       </c>
       <c r="C373" s="5">
         <v>6534</v>
@@ -8033,12 +8581,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4">
       <c r="A374" s="1" t="s">
-        <v>467</v>
+        <v>497</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>468</v>
+        <v>498</v>
       </c>
       <c r="C374" s="6">
         <v>6521</v>
@@ -8047,12 +8595,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4">
       <c r="A375" s="2" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="C375" s="5">
         <v>6518</v>
@@ -8061,12 +8609,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4">
       <c r="A376" s="1" t="s">
-        <v>471</v>
+        <v>501</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="C376" s="6">
         <v>6520</v>
@@ -8075,12 +8623,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4">
       <c r="A377" s="2" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="C377" s="5">
         <v>6528</v>
@@ -8089,12 +8637,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4">
       <c r="A378" s="1" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>472</v>
+        <v>502</v>
       </c>
       <c r="C378" s="6">
         <v>6525</v>
@@ -8103,12 +8651,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4">
       <c r="A379" s="2" t="s">
-        <v>473</v>
+        <v>503</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>441</v>
+        <v>471</v>
       </c>
       <c r="C379" s="5">
         <v>6516</v>
@@ -8117,12 +8665,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4">
       <c r="A380" s="1" t="s">
-        <v>474</v>
+        <v>504</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>475</v>
+        <v>505</v>
       </c>
       <c r="C380" s="6">
         <v>6529</v>
@@ -8131,12 +8679,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4">
       <c r="A381" s="2" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="C381" s="5">
         <v>6519</v>
@@ -8145,12 +8693,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4">
       <c r="A382" s="1" t="s">
-        <v>477</v>
+        <v>507</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>478</v>
+        <v>508</v>
       </c>
       <c r="C382" s="6">
         <v>6532</v>
@@ -8159,12 +8707,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4">
       <c r="A383" s="2" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="C383" s="5">
         <v>6540</v>
@@ -8173,12 +8721,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4">
       <c r="A384" s="1" t="s">
-        <v>479</v>
+        <v>509</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="C384" s="6">
         <v>6541</v>
@@ -8187,12 +8735,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4">
       <c r="A385" s="2" t="s">
-        <v>481</v>
+        <v>511</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="C385" s="5">
         <v>6537</v>
@@ -8201,12 +8749,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4">
       <c r="A386" s="1" t="s">
-        <v>482</v>
+        <v>512</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>483</v>
+        <v>513</v>
       </c>
       <c r="C386" s="6">
         <v>6543</v>
@@ -8215,12 +8763,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4">
       <c r="A387" s="2" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>484</v>
+        <v>514</v>
       </c>
       <c r="C387" s="5">
         <v>6542</v>
@@ -8229,12 +8777,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4">
       <c r="A388" s="1" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>485</v>
+        <v>515</v>
       </c>
       <c r="C388" s="6">
         <v>6515</v>
@@ -8243,12 +8791,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4">
       <c r="A389" s="2" t="s">
-        <v>486</v>
+        <v>516</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>487</v>
+        <v>517</v>
       </c>
       <c r="C389" s="5">
         <v>6545</v>
@@ -8257,12 +8805,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4">
       <c r="A390" s="1" t="s">
-        <v>488</v>
+        <v>518</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="C390" s="6">
         <v>6538</v>
@@ -8271,12 +8819,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4">
       <c r="A391" s="2" t="s">
-        <v>489</v>
+        <v>519</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>490</v>
+        <v>520</v>
       </c>
       <c r="C391" s="5">
         <v>6544</v>
@@ -8285,12 +8833,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4">
       <c r="A392" s="1" t="s">
-        <v>491</v>
+        <v>521</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>492</v>
+        <v>522</v>
       </c>
       <c r="C392" s="6">
         <v>6517</v>
@@ -8299,12 +8847,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4">
       <c r="A393" s="2" t="s">
-        <v>493</v>
+        <v>523</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>494</v>
+        <v>524</v>
       </c>
       <c r="C393" s="5">
         <v>6579</v>
@@ -8313,12 +8861,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4">
       <c r="A394" s="1" t="s">
-        <v>495</v>
+        <v>525</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>496</v>
+        <v>526</v>
       </c>
       <c r="C394" s="6">
         <v>6539</v>
@@ -8327,12 +8875,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4">
       <c r="A395" s="2" t="s">
-        <v>497</v>
+        <v>527</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>498</v>
+        <v>528</v>
       </c>
       <c r="C395" s="5">
         <v>6514</v>
@@ -8341,12 +8889,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4">
       <c r="A396" s="1" t="s">
-        <v>499</v>
+        <v>529</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="C396" s="6">
         <v>6536</v>
@@ -8355,12 +8903,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4">
       <c r="A397" s="1" t="s">
-        <v>501</v>
+        <v>531</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="C397" s="6">
         <v>6599</v>
@@ -8369,12 +8917,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4">
       <c r="A398" s="2" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="C398" s="5">
         <v>6585</v>
@@ -8383,12 +8931,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4">
       <c r="A399" s="1" t="s">
-        <v>503</v>
+        <v>533</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>504</v>
+        <v>534</v>
       </c>
       <c r="C399" s="6">
         <v>6578</v>
@@ -8397,12 +8945,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4">
       <c r="A400" s="2" t="s">
-        <v>505</v>
+        <v>535</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>506</v>
+        <v>536</v>
       </c>
       <c r="C400" s="5">
         <v>6577</v>
@@ -8411,12 +8959,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4">
       <c r="A401" s="1" t="s">
-        <v>388</v>
+        <v>418</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="C401" s="6">
         <v>6576</v>
@@ -8425,12 +8973,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4">
       <c r="A402" s="2" t="s">
-        <v>507</v>
+        <v>537</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>508</v>
+        <v>538</v>
       </c>
       <c r="C402" s="5">
         <v>6572</v>
@@ -8439,12 +8987,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4">
       <c r="A403" s="1" t="s">
-        <v>509</v>
+        <v>539</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="C403" s="6">
         <v>6568</v>
@@ -8453,12 +9001,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4">
       <c r="A404" s="2" t="s">
-        <v>511</v>
+        <v>541</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>512</v>
+        <v>542</v>
       </c>
       <c r="C404" s="5">
         <v>6567</v>
@@ -8467,12 +9015,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4">
       <c r="A405" s="1" t="s">
-        <v>513</v>
+        <v>543</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="C405" s="6">
         <v>6563</v>
@@ -8481,12 +9029,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4">
       <c r="A406" s="2" t="s">
-        <v>514</v>
+        <v>544</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="C406" s="5">
         <v>6559</v>
@@ -8495,108 +9043,108 @@
         <v>13</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4">
       <c r="A407" s="1" t="s">
-        <v>417</v>
+        <v>447</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>418</v>
+        <v>448</v>
       </c>
       <c r="C407" s="6">
         <v>6521</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4">
       <c r="A408" s="2" t="s">
-        <v>515</v>
+        <v>545</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>516</v>
+        <v>546</v>
       </c>
       <c r="C408" s="5">
         <v>6513</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4">
       <c r="A409" s="1" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="C409" s="6">
         <v>6447</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4">
       <c r="A410" s="2" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="C410" s="5">
         <v>6408</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4">
       <c r="A411" s="1" t="s">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="C411" s="6">
         <v>6407</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4">
       <c r="A412" s="2" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="C412" s="5">
         <v>6504</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4">
       <c r="A413" s="1" t="s">
-        <v>517</v>
+        <v>547</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>518</v>
+        <v>548</v>
       </c>
       <c r="C413" s="6">
         <v>6548</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4">
       <c r="A414" s="2" t="s">
-        <v>519</v>
+        <v>549</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="C414" s="5">
         <v>6549</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4">
       <c r="A415" s="1" t="s">
-        <v>521</v>
+        <v>551</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>522</v>
+        <v>552</v>
       </c>
       <c r="C415" s="6">
         <v>6550</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4">
       <c r="A416" s="2" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>26</v>
@@ -8605,64 +9153,64 @@
         <v>6551</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4">
       <c r="A417" s="1" t="s">
-        <v>524</v>
+        <v>554</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="C417" s="6">
         <v>6556</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4">
       <c r="A418" s="2" t="s">
-        <v>526</v>
+        <v>556</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>527</v>
+        <v>557</v>
       </c>
       <c r="C418" s="5">
         <v>6557</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4">
       <c r="A419" s="1" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>528</v>
+        <v>558</v>
       </c>
       <c r="C419" s="6">
         <v>6586</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4">
       <c r="A420" s="2" t="s">
-        <v>529</v>
+        <v>559</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="C420" s="5">
         <v>6587</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4">
       <c r="A421" s="1" t="s">
-        <v>531</v>
+        <v>561</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>532</v>
+        <v>562</v>
       </c>
       <c r="C421" s="6">
         <v>6593</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4">
       <c r="A422" s="2" t="s">
-        <v>533</v>
+        <v>563</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>40</v>
@@ -8671,45 +9219,45 @@
         <v>6594</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4">
       <c r="A423" s="1" t="s">
-        <v>534</v>
+        <v>564</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>535</v>
+        <v>565</v>
       </c>
       <c r="C423" s="6">
         <v>6595</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4">
       <c r="A424" s="2" t="s">
-        <v>536</v>
+        <v>566</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>537</v>
+        <v>567</v>
       </c>
       <c r="C424" s="5">
         <v>6596</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4">
       <c r="A425" s="1" t="s">
-        <v>538</v>
+        <v>568</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>539</v>
+        <v>569</v>
       </c>
       <c r="C425" s="6">
         <v>6597</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4">
       <c r="A426" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>540</v>
+        <v>570</v>
       </c>
       <c r="C426" s="6">
         <v>6598</v>
@@ -8718,7 +9266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="5"/>
@@ -8726,7 +9274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="6"/>
@@ -8734,7 +9282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="5"/>
@@ -8742,12 +9290,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4">
       <c r="A430" s="1" t="s">
-        <v>541</v>
+        <v>571</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>542</v>
+        <v>572</v>
       </c>
       <c r="C430" s="6">
         <v>6582</v>
@@ -8756,12 +9304,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4">
       <c r="A431" s="2" t="s">
-        <v>543</v>
+        <v>573</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>544</v>
+        <v>574</v>
       </c>
       <c r="C431" s="5">
         <v>6583</v>
@@ -8770,12 +9318,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4">
       <c r="A432" s="1" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>546</v>
+        <v>576</v>
       </c>
       <c r="C432" s="6">
         <v>6592</v>
@@ -8784,12 +9332,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4">
       <c r="A433" s="2" t="s">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>548</v>
+        <v>578</v>
       </c>
       <c r="C433" s="5">
         <v>6570</v>
@@ -8798,12 +9346,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4">
       <c r="A434" s="1" t="s">
-        <v>549</v>
+        <v>579</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="C434" s="6">
         <v>6553</v>
@@ -8812,12 +9360,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4">
       <c r="A435" s="2" t="s">
-        <v>551</v>
+        <v>581</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>552</v>
+        <v>582</v>
       </c>
       <c r="C435" s="5">
         <v>6589</v>
@@ -8826,12 +9374,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4">
       <c r="A436" s="1" t="s">
-        <v>553</v>
+        <v>583</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>554</v>
+        <v>584</v>
       </c>
       <c r="C436" s="6">
         <v>6588</v>
@@ -8840,12 +9388,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4">
       <c r="A437" s="2" t="s">
-        <v>555</v>
+        <v>585</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>474</v>
+        <v>504</v>
       </c>
       <c r="C437" s="5">
         <v>6547</v>
@@ -8854,12 +9402,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4">
       <c r="A438" s="1" t="s">
-        <v>556</v>
+        <v>586</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>557</v>
+        <v>587</v>
       </c>
       <c r="C438" s="6">
         <v>6552</v>
@@ -8868,12 +9416,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4">
       <c r="A439" s="2" t="s">
-        <v>558</v>
+        <v>588</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>559</v>
+        <v>589</v>
       </c>
       <c r="C439" s="5">
         <v>6584</v>
@@ -8882,12 +9430,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4">
       <c r="A440" s="1" t="s">
-        <v>560</v>
+        <v>590</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>561</v>
+        <v>591</v>
       </c>
       <c r="C440" s="6">
         <v>6561</v>
@@ -8896,12 +9444,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4">
       <c r="A441" s="2" t="s">
-        <v>562</v>
+        <v>592</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>563</v>
+        <v>593</v>
       </c>
       <c r="C441" s="5">
         <v>6562</v>
@@ -8910,12 +9458,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4">
       <c r="A442" s="1" t="s">
-        <v>564</v>
+        <v>594</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>565</v>
+        <v>595</v>
       </c>
       <c r="C442" s="6">
         <v>6554</v>
@@ -8924,12 +9472,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4">
       <c r="A443" s="2" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
       <c r="C443" s="5">
         <v>6569</v>
@@ -8938,12 +9486,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4">
       <c r="A444" s="1" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="C444" s="6">
         <v>6590</v>
@@ -8952,12 +9500,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4">
       <c r="A445" s="2" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="C445" s="5">
         <v>6591</v>
@@ -8966,12 +9514,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4">
       <c r="A446" s="1" t="s">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>571</v>
+        <v>601</v>
       </c>
       <c r="C446" s="6">
         <v>6555</v>
@@ -8980,12 +9528,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4">
       <c r="A447" s="2" t="s">
-        <v>572</v>
+        <v>602</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>573</v>
+        <v>603</v>
       </c>
       <c r="C447" s="5">
         <v>9200</v>
@@ -8994,12 +9542,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4">
       <c r="A448" s="1" t="s">
-        <v>529</v>
+        <v>559</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>574</v>
+        <v>604</v>
       </c>
       <c r="C448" s="6">
         <v>9203</v>
@@ -9008,12 +9556,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4">
       <c r="A449" s="2" t="s">
-        <v>575</v>
+        <v>605</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>576</v>
+        <v>606</v>
       </c>
       <c r="C449" s="5">
         <v>9201</v>
@@ -9022,12 +9570,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4">
       <c r="A450" s="1" t="s">
-        <v>577</v>
+        <v>607</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="C450" s="6">
         <v>9202</v>
@@ -9036,12 +9584,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4">
       <c r="A451" s="2" t="s">
-        <v>578</v>
+        <v>608</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="C451" s="5">
         <v>9204</v>
@@ -9050,12 +9598,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4">
       <c r="A452" s="1" t="s">
-        <v>579</v>
+        <v>609</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="C452" s="6">
         <v>9298</v>
@@ -9064,12 +9612,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4">
       <c r="A453" s="2" t="s">
-        <v>581</v>
+        <v>611</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>582</v>
+        <v>612</v>
       </c>
       <c r="C453" s="5">
         <v>9205</v>
@@ -9078,12 +9626,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4">
       <c r="A454" s="1" t="s">
-        <v>583</v>
+        <v>613</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="C454" s="6">
         <v>9206</v>
@@ -9092,12 +9640,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4">
       <c r="A455" s="1" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>585</v>
+        <v>615</v>
       </c>
       <c r="C455" s="6">
         <v>9244</v>
@@ -9106,12 +9654,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4">
       <c r="A456" s="2" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
       <c r="C456" s="5">
         <v>9203</v>
@@ -9120,12 +9668,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4">
       <c r="A457" s="1" t="s">
-        <v>587</v>
+        <v>617</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="C457" s="6">
         <v>6590</v>
@@ -9134,12 +9682,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4">
       <c r="A458" s="2" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>589</v>
+        <v>619</v>
       </c>
       <c r="C458" s="5">
         <v>6561</v>
@@ -9148,12 +9696,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4">
       <c r="A459" s="1" t="s">
-        <v>590</v>
+        <v>620</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>591</v>
+        <v>621</v>
       </c>
       <c r="C459" s="6">
         <v>6562</v>
@@ -9162,12 +9710,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4">
       <c r="A460" s="2" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C460" s="5">
         <v>9282</v>
@@ -9176,12 +9724,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4">
       <c r="A461" s="1" t="s">
-        <v>592</v>
+        <v>622</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>593</v>
+        <v>623</v>
       </c>
       <c r="C461" s="6">
         <v>9245</v>
@@ -9190,12 +9738,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4">
       <c r="A462" s="2" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>594</v>
+        <v>624</v>
       </c>
       <c r="C462" s="5">
         <v>9208</v>
@@ -9204,12 +9752,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4">
       <c r="A463" s="1" t="s">
-        <v>595</v>
+        <v>625</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>596</v>
+        <v>626</v>
       </c>
       <c r="C463" s="6">
         <v>9207</v>
@@ -9218,12 +9766,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4">
       <c r="A464" s="2" t="s">
-        <v>597</v>
+        <v>627</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="C464" s="5">
         <v>9246</v>
@@ -9232,12 +9780,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4">
       <c r="A465" s="1" t="s">
-        <v>599</v>
+        <v>629</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>600</v>
+        <v>630</v>
       </c>
       <c r="C465" s="6">
         <v>9247</v>
@@ -9246,12 +9794,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4">
       <c r="A466" s="2" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>602</v>
+        <v>632</v>
       </c>
       <c r="C466" s="5">
         <v>9250</v>
@@ -9260,12 +9808,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4">
       <c r="A467" s="1" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>603</v>
+        <v>633</v>
       </c>
       <c r="C467" s="6">
         <v>9249</v>
@@ -9274,12 +9822,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4">
       <c r="A468" s="2" t="s">
-        <v>604</v>
+        <v>634</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>605</v>
+        <v>635</v>
       </c>
       <c r="C468" s="5">
         <v>9248</v>
@@ -9288,12 +9836,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4">
       <c r="A469" s="1" t="s">
-        <v>606</v>
+        <v>636</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>607</v>
+        <v>637</v>
       </c>
       <c r="C469" s="6">
         <v>9210</v>
@@ -9302,12 +9850,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4">
       <c r="A470" s="2" t="s">
-        <v>608</v>
+        <v>638</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>416</v>
+        <v>446</v>
       </c>
       <c r="C470" s="5">
         <v>9209</v>
@@ -9316,12 +9864,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4">
       <c r="A471" s="1" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="C471" s="6">
         <v>9283</v>
@@ -9330,12 +9878,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4">
       <c r="A472" s="2" t="s">
-        <v>609</v>
+        <v>639</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="C472" s="5">
         <v>9284</v>
@@ -9344,12 +9892,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4">
       <c r="A473" s="1" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="C473" s="6">
         <v>6542</v>
@@ -9358,12 +9906,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4">
       <c r="A474" s="2" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>585</v>
+        <v>615</v>
       </c>
       <c r="C474" s="5">
         <v>6505</v>
@@ -9372,12 +9920,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4">
       <c r="A475" s="1" t="s">
-        <v>610</v>
+        <v>640</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>611</v>
+        <v>641</v>
       </c>
       <c r="C475" s="6">
         <v>1998</v>
@@ -9386,12 +9934,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4">
       <c r="A476" s="2" t="s">
-        <v>612</v>
+        <v>642</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>613</v>
+        <v>643</v>
       </c>
       <c r="C476" s="5">
         <v>6458</v>
@@ -9400,12 +9948,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4">
       <c r="A477" s="1" t="s">
-        <v>614</v>
+        <v>644</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>615</v>
+        <v>645</v>
       </c>
       <c r="C477" s="6">
         <v>6422</v>
@@ -9414,12 +9962,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4">
       <c r="A478" s="2" t="s">
-        <v>529</v>
+        <v>559</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>616</v>
+        <v>646</v>
       </c>
       <c r="C478" s="5">
         <v>6451</v>
@@ -9428,12 +9976,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4">
       <c r="A479" s="1" t="s">
-        <v>617</v>
+        <v>647</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>618</v>
+        <v>648</v>
       </c>
       <c r="C479" s="6">
         <v>6438</v>
@@ -9442,12 +9990,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4">
       <c r="A480" s="2" t="s">
-        <v>619</v>
+        <v>649</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>620</v>
+        <v>650</v>
       </c>
       <c r="C480" s="5">
         <v>6536</v>
@@ -9456,12 +10004,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4">
       <c r="A481" s="1" t="s">
-        <v>495</v>
+        <v>525</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>621</v>
+        <v>651</v>
       </c>
       <c r="C481" s="6">
         <v>6540</v>
@@ -9470,12 +10018,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4">
       <c r="A482" s="2" t="s">
-        <v>622</v>
+        <v>652</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>623</v>
+        <v>653</v>
       </c>
       <c r="C482" s="5">
         <v>6594</v>
@@ -9484,12 +10032,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4">
       <c r="A483" s="1" t="s">
-        <v>624</v>
+        <v>654</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>621</v>
+        <v>651</v>
       </c>
       <c r="C483" s="6">
         <v>6557</v>
@@ -9498,12 +10046,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4">
       <c r="A484" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="C484" s="5">
         <v>9209</v>
@@ -9512,12 +10060,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4">
       <c r="A485" s="1" t="s">
-        <v>625</v>
+        <v>655</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>626</v>
+        <v>656</v>
       </c>
       <c r="C485" s="6">
         <v>9246</v>
@@ -9526,12 +10074,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4">
       <c r="A486" s="2" t="s">
-        <v>474</v>
+        <v>504</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>627</v>
+        <v>657</v>
       </c>
       <c r="C486" s="5">
         <v>6533</v>
@@ -9540,12 +10088,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4">
       <c r="A487" s="1" t="s">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>628</v>
+        <v>658</v>
       </c>
       <c r="C487" s="6">
         <v>6458</v>
@@ -9554,12 +10102,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4">
       <c r="A488" s="2" t="s">
-        <v>629</v>
+        <v>659</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>630</v>
+        <v>660</v>
       </c>
       <c r="C488" s="5">
         <v>9283</v>
@@ -9568,12 +10116,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4">
       <c r="A489" s="1" t="s">
-        <v>631</v>
+        <v>661</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>613</v>
+        <v>643</v>
       </c>
       <c r="C489" s="6">
         <v>6535</v>
@@ -9582,12 +10130,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4">
       <c r="A490" s="2" t="s">
-        <v>474</v>
+        <v>504</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>632</v>
+        <v>662</v>
       </c>
       <c r="C490" s="5">
         <v>9250</v>
@@ -9596,12 +10144,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4">
       <c r="A491" s="1" t="s">
-        <v>633</v>
+        <v>663</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>505</v>
+        <v>535</v>
       </c>
       <c r="C491" s="6">
         <v>6530</v>
@@ -9610,12 +10158,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4">
       <c r="A492" s="2" t="s">
-        <v>634</v>
+        <v>664</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>635</v>
+        <v>665</v>
       </c>
       <c r="C492" s="5">
         <v>9209</v>
@@ -9624,12 +10172,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4">
       <c r="A493" s="1" t="s">
-        <v>636</v>
+        <v>666</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>492</v>
+        <v>522</v>
       </c>
       <c r="C493" s="6">
         <v>6456</v>
@@ -9638,12 +10186,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4">
       <c r="A494" s="2" t="s">
-        <v>637</v>
+        <v>667</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>638</v>
+        <v>668</v>
       </c>
       <c r="C494" s="5">
         <v>6591</v>
@@ -9652,12 +10200,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4">
       <c r="A495" s="1" t="s">
-        <v>639</v>
+        <v>669</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>640</v>
+        <v>670</v>
       </c>
       <c r="C495" s="6">
         <v>1994</v>
@@ -9666,12 +10214,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4">
       <c r="A496" s="2" t="s">
-        <v>641</v>
+        <v>671</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>613</v>
+        <v>643</v>
       </c>
       <c r="C496" s="5">
         <v>6516</v>
@@ -9680,12 +10228,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4">
       <c r="A497" s="1" t="s">
-        <v>642</v>
+        <v>672</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>643</v>
+        <v>673</v>
       </c>
       <c r="C497" s="6">
         <v>9235</v>
@@ -9694,12 +10242,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4">
       <c r="A498" s="2" t="s">
-        <v>644</v>
+        <v>674</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>645</v>
+        <v>675</v>
       </c>
       <c r="C498" s="5">
         <v>9275</v>
@@ -9708,12 +10256,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4">
       <c r="A499" s="1" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>638</v>
+        <v>668</v>
       </c>
       <c r="C499" s="6">
         <v>6414</v>
@@ -9722,12 +10270,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4">
       <c r="A500" s="2" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>646</v>
+        <v>676</v>
       </c>
       <c r="C500" s="5">
         <v>9299</v>
@@ -9736,12 +10284,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4">
       <c r="A501" s="1" t="s">
-        <v>647</v>
+        <v>677</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="C501" s="6">
         <v>9270</v>
@@ -9750,368 +10298,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4">
       <c r="A502" s="2" t="s">
-        <v>648</v>
+        <v>678</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="C502" s="5">
         <v>9280</v>
       </c>
       <c r="D502" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A503" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B503" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C503" s="6">
-        <v>9209</v>
-      </c>
-      <c r="D503" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A504" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B504" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C504" s="5">
-        <v>9279</v>
-      </c>
-      <c r="D504" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A505" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B505" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C505" s="6">
-        <v>9276</v>
-      </c>
-      <c r="D505" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A506" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B506" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C506" s="5">
-        <v>9274</v>
-      </c>
-      <c r="D506" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A507" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B507" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C507" s="6">
-        <v>9261</v>
-      </c>
-      <c r="D507" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A508" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B508" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C508" s="5">
-        <v>9260</v>
-      </c>
-      <c r="D508" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A509" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B509" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C509" s="6">
-        <v>9259</v>
-      </c>
-      <c r="D509" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A510" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B510" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C510" s="5">
-        <v>9258</v>
-      </c>
-      <c r="D510" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A511" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B511" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C511" s="6">
-        <v>9257</v>
-      </c>
-      <c r="D511" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A512" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B512" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C512" s="5">
-        <v>9256</v>
-      </c>
-      <c r="D512" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A513" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B513" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C513" s="6">
-        <v>9255</v>
-      </c>
-      <c r="D513" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A514" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B514" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C514" s="5">
-        <v>9254</v>
-      </c>
-      <c r="D514" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A515" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B515" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C515" s="6">
-        <v>9253</v>
-      </c>
-      <c r="D515" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A516" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B516" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C516" s="5">
-        <v>9219</v>
-      </c>
-      <c r="D516" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A517" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B517" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C517" s="6">
-        <v>9218</v>
-      </c>
-      <c r="D517" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A518" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B518" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C518" s="5">
-        <v>9217</v>
-      </c>
-      <c r="D518" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A519" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B519" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C519" s="6">
-        <v>9216</v>
-      </c>
-      <c r="D519" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A520" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B520" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C520" s="5">
-        <v>9222</v>
-      </c>
-      <c r="D520" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A521" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B521" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C521" s="6">
-        <v>9264</v>
-      </c>
-      <c r="D521" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A522" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B522" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C522" s="5">
-        <v>9272</v>
-      </c>
-      <c r="D522" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A523" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B523" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C523" s="6">
-        <v>9220</v>
-      </c>
-      <c r="D523" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A524" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B524" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C524" s="5">
-        <v>11437</v>
-      </c>
-      <c r="D524" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A525" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B525" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C525" s="6">
-        <v>11436</v>
-      </c>
-      <c r="D525" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A526" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B526" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C526" s="5">
-        <v>11435</v>
-      </c>
-      <c r="D526" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A527" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B527" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C527" s="6">
-        <v>11434</v>
-      </c>
-      <c r="D527" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -10374,39 +10572,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{516C47DE-5E69-4ED4-B335-2D06DB8F4F74}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="19fc8c01-1281-4c4f-a9d6-4eaecf49cf8c"/>
-    <ds:schemaRef ds:uri="64f8f827-b2a5-48dc-b2c3-f16a6c19a3e1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{516C47DE-5E69-4ED4-B335-2D06DB8F4F74}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31236C6E-5FF1-4D70-876A-B16E5BFCC253}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31236C6E-5FF1-4D70-876A-B16E5BFCC253}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8608753D-D904-4E13-B351-DF9ECED19E3C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="64f8f827-b2a5-48dc-b2c3-f16a6c19a3e1"/>
-    <ds:schemaRef ds:uri="19fc8c01-1281-4c4f-a9d6-4eaecf49cf8c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8608753D-D904-4E13-B351-DF9ECED19E3C}"/>
 </file>
--- a/New_Apex_Users.xlsx
+++ b/New_Apex_Users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27823"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tmgolf.sharepoint.com/sites/GarrisonIT/Shared Documents/Apex/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tmgolf-my.sharepoint.com/personal/brandon_yates_taylormadegolf_com/Documents/Documents/GitHub/Apex-Revamped/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1941" documentId="13_ncr:1_{8E09E700-47DA-4F61-8A8F-DCB1AD3AABF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA72482B-3899-4062-943C-6C953CF1681E}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="114_{2C8957D2-8C71-4894-B5B9-E1B7EDA9EDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F887C0FE-166D-4B4A-8EA4-CED3CAEA78A8}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="3975" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="680">
   <si>
     <t>First Name</t>
   </si>
@@ -2083,7 +2083,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2248,7 +2248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2291,6 +2291,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2342,16 +2354,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color indexed="64"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color indexed="64"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2397,7 +2409,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FFF1182C-47B5-458A-8340-D889850809B5}" name="Table1" displayName="Table1" ref="A1:D1048551" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FFF1182C-47B5-458A-8340-D889850809B5}" name="Table1" displayName="Table1" ref="A1:D1048551" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="A1:D1048551" xr:uid="{FFF1182C-47B5-458A-8340-D889850809B5}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{62E7DE4D-AC90-4FCB-A868-E35C807438A0}" name="First Name" dataDxfId="6"/>
@@ -2697,13 +2709,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="20.7109375" style="7" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" style="8" customWidth="1"/>
@@ -2711,7 +2723,7 @@
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2732,606 +2744,24 @@
       <c r="H1" s="13"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="8">
-        <v>9209</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="8">
-        <v>9279</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>7</v>
-      </c>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="8">
-        <v>9276</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>7</v>
-      </c>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="8">
-        <v>9274</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>7</v>
-      </c>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="8">
-        <v>9261</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="8">
-        <v>9260</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="8">
-        <v>9259</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="8">
-        <v>9258</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="8">
-        <v>9257</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="8">
-        <v>9256</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="8">
-        <v>9255</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="8">
-        <v>9254</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="8">
-        <v>9253</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="8">
-        <v>9219</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="8">
-        <v>9218</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="8">
-        <v>9217</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="8">
-        <v>9216</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="8">
-        <v>9222</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="8">
-        <v>9264</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="8">
-        <v>9272</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="8">
-        <v>9220</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="8">
-        <v>11437</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="8">
-        <v>11436</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="8">
-        <v>11435</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="8">
-        <v>11434</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="8">
-        <v>9221</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="8">
-        <v>9251</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="8">
-        <v>9252</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="8">
-        <v>9297</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="8">
-        <v>9213</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="8">
-        <v>9237</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="8">
-        <v>9241</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="8">
-        <v>9242</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="8">
-        <v>9223</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="8">
-        <v>9243</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="8">
-        <v>9288</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="8">
-        <v>9293</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="8">
-        <v>9239</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="8">
-        <v>9228</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="8">
-        <v>9296</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="8">
-        <v>9287</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="8">
-        <v>9227</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="8">
-        <v>9234</v>
       </c>
     </row>
   </sheetData>
@@ -3348,18 +2778,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AB6290-216F-4273-8BAA-4D67C193A962}">
-  <dimension ref="A1:D502"/>
+  <dimension ref="A1:D545"/>
   <sheetViews>
-    <sheetView topLeftCell="A431" workbookViewId="0">
-      <selection activeCell="F484" sqref="F484"/>
+    <sheetView tabSelected="1" topLeftCell="A527" workbookViewId="0">
+      <selection activeCell="G532" sqref="G532"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
@@ -3373,7 +2803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>95</v>
       </c>
@@ -3387,7 +2817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>97</v>
       </c>
@@ -3401,7 +2831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>99</v>
       </c>
@@ -3415,7 +2845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>101</v>
       </c>
@@ -3429,7 +2859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>103</v>
       </c>
@@ -3443,7 +2873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>105</v>
       </c>
@@ -3457,7 +2887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>107</v>
       </c>
@@ -3471,7 +2901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>109</v>
       </c>
@@ -3485,7 +2915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>111</v>
       </c>
@@ -3499,7 +2929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>113</v>
       </c>
@@ -3513,7 +2943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>115</v>
       </c>
@@ -3527,7 +2957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>117</v>
       </c>
@@ -3541,7 +2971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>119</v>
       </c>
@@ -3555,7 +2985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>121</v>
       </c>
@@ -3569,7 +2999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>121</v>
       </c>
@@ -3583,7 +3013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>121</v>
       </c>
@@ -3597,7 +3027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>121</v>
       </c>
@@ -3611,7 +3041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>121</v>
       </c>
@@ -3625,7 +3055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>121</v>
       </c>
@@ -3639,7 +3069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>121</v>
       </c>
@@ -3653,7 +3083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>121</v>
       </c>
@@ -3667,7 +3097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>121</v>
       </c>
@@ -3681,7 +3111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>121</v>
       </c>
@@ -3695,7 +3125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>121</v>
       </c>
@@ -3709,7 +3139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>121</v>
       </c>
@@ -3723,7 +3153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>121</v>
       </c>
@@ -3737,7 +3167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>121</v>
       </c>
@@ -3751,7 +3181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>121</v>
       </c>
@@ -3765,7 +3195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>121</v>
       </c>
@@ -3779,7 +3209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>121</v>
       </c>
@@ -3793,7 +3223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>121</v>
       </c>
@@ -3807,7 +3237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>121</v>
       </c>
@@ -3821,7 +3251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>121</v>
       </c>
@@ -3835,7 +3265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>121</v>
       </c>
@@ -3849,7 +3279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>121</v>
       </c>
@@ -3863,7 +3293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>121</v>
       </c>
@@ -3877,7 +3307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>121</v>
       </c>
@@ -3891,7 +3321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>121</v>
       </c>
@@ -3905,7 +3335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>121</v>
       </c>
@@ -3919,7 +3349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>121</v>
       </c>
@@ -3933,7 +3363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>121</v>
       </c>
@@ -3947,7 +3377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>121</v>
       </c>
@@ -3961,7 +3391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>121</v>
       </c>
@@ -3975,7 +3405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>121</v>
       </c>
@@ -3989,7 +3419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>121</v>
       </c>
@@ -4003,7 +3433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>121</v>
       </c>
@@ -4017,7 +3447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>121</v>
       </c>
@@ -4031,7 +3461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>121</v>
       </c>
@@ -4045,7 +3475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>121</v>
       </c>
@@ -4059,7 +3489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>121</v>
       </c>
@@ -4073,7 +3503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>121</v>
       </c>
@@ -4087,7 +3517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>121</v>
       </c>
@@ -4101,7 +3531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>121</v>
       </c>
@@ -4115,7 +3545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>121</v>
       </c>
@@ -4129,7 +3559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>121</v>
       </c>
@@ -4143,7 +3573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>121</v>
       </c>
@@ -4157,7 +3587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>121</v>
       </c>
@@ -4171,7 +3601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>121</v>
       </c>
@@ -4185,7 +3615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>121</v>
       </c>
@@ -4199,7 +3629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>121</v>
       </c>
@@ -4213,7 +3643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>121</v>
       </c>
@@ -4227,7 +3657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>121</v>
       </c>
@@ -4241,7 +3671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>121</v>
       </c>
@@ -4255,7 +3685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>121</v>
       </c>
@@ -4269,7 +3699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>121</v>
       </c>
@@ -4283,7 +3713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>121</v>
       </c>
@@ -4297,7 +3727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>121</v>
       </c>
@@ -4311,7 +3741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>121</v>
       </c>
@@ -4325,7 +3755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>121</v>
       </c>
@@ -4339,7 +3769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>121</v>
       </c>
@@ -4353,7 +3783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>121</v>
       </c>
@@ -4367,7 +3797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>121</v>
       </c>
@@ -4381,7 +3811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>121</v>
       </c>
@@ -4395,7 +3825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>121</v>
       </c>
@@ -4409,7 +3839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>121</v>
       </c>
@@ -4423,7 +3853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>121</v>
       </c>
@@ -4437,7 +3867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>121</v>
       </c>
@@ -4451,7 +3881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>121</v>
       </c>
@@ -4465,7 +3895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>121</v>
       </c>
@@ -4479,7 +3909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>121</v>
       </c>
@@ -4493,7 +3923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>121</v>
       </c>
@@ -4507,7 +3937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>121</v>
       </c>
@@ -4521,7 +3951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>121</v>
       </c>
@@ -4535,7 +3965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>121</v>
       </c>
@@ -4549,7 +3979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>121</v>
       </c>
@@ -4563,7 +3993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>121</v>
       </c>
@@ -4577,7 +4007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>121</v>
       </c>
@@ -4591,7 +4021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>121</v>
       </c>
@@ -4605,7 +4035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>121</v>
       </c>
@@ -4619,7 +4049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>121</v>
       </c>
@@ -4633,7 +4063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>121</v>
       </c>
@@ -4647,7 +4077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>121</v>
       </c>
@@ -4661,7 +4091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>121</v>
       </c>
@@ -4675,7 +4105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>121</v>
       </c>
@@ -4689,7 +4119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>121</v>
       </c>
@@ -4703,7 +4133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>121</v>
       </c>
@@ -4717,7 +4147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>121</v>
       </c>
@@ -4731,7 +4161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>121</v>
       </c>
@@ -4745,7 +4175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>121</v>
       </c>
@@ -4759,7 +4189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>121</v>
       </c>
@@ -4773,7 +4203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>121</v>
       </c>
@@ -4787,7 +4217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>121</v>
       </c>
@@ -4801,7 +4231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>121</v>
       </c>
@@ -4815,7 +4245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>121</v>
       </c>
@@ -4829,7 +4259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>121</v>
       </c>
@@ -4843,7 +4273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
         <v>121</v>
       </c>
@@ -4857,7 +4287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
         <v>121</v>
       </c>
@@ -4871,7 +4301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
         <v>121</v>
       </c>
@@ -4885,7 +4315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>121</v>
       </c>
@@ -4899,7 +4329,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
         <v>121</v>
       </c>
@@ -4913,7 +4343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>121</v>
       </c>
@@ -4927,7 +4357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>121</v>
       </c>
@@ -4941,7 +4371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>121</v>
       </c>
@@ -4955,7 +4385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>121</v>
       </c>
@@ -4969,7 +4399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>121</v>
       </c>
@@ -4983,7 +4413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>121</v>
       </c>
@@ -4997,7 +4427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>121</v>
       </c>
@@ -5011,7 +4441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>121</v>
       </c>
@@ -5025,7 +4455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>121</v>
       </c>
@@ -5039,7 +4469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>121</v>
       </c>
@@ -5053,7 +4483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>121</v>
       </c>
@@ -5067,7 +4497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>121</v>
       </c>
@@ -5081,7 +4511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>121</v>
       </c>
@@ -5095,7 +4525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>121</v>
       </c>
@@ -5109,7 +4539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>121</v>
       </c>
@@ -5123,7 +4553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>121</v>
       </c>
@@ -5137,7 +4567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>121</v>
       </c>
@@ -5151,7 +4581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>121</v>
       </c>
@@ -5165,7 +4595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>121</v>
       </c>
@@ -5179,7 +4609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>121</v>
       </c>
@@ -5193,7 +4623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>121</v>
       </c>
@@ -5207,7 +4637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>121</v>
       </c>
@@ -5221,7 +4651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>121</v>
       </c>
@@ -5235,7 +4665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>121</v>
       </c>
@@ -5249,7 +4679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>123</v>
       </c>
@@ -5263,7 +4693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>125</v>
       </c>
@@ -5277,7 +4707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>127</v>
       </c>
@@ -5291,7 +4721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>129</v>
       </c>
@@ -5305,7 +4735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>131</v>
       </c>
@@ -5319,7 +4749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>133</v>
       </c>
@@ -5333,7 +4763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>135</v>
       </c>
@@ -5347,7 +4777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>137</v>
       </c>
@@ -5361,7 +4791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>139</v>
       </c>
@@ -5375,7 +4805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>141</v>
       </c>
@@ -5389,7 +4819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>143</v>
       </c>
@@ -5403,7 +4833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>145</v>
       </c>
@@ -5417,7 +4847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
@@ -5431,7 +4861,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>149</v>
       </c>
@@ -5445,7 +4875,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>151</v>
       </c>
@@ -5459,7 +4889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>153</v>
       </c>
@@ -5473,7 +4903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>155</v>
       </c>
@@ -5487,7 +4917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>157</v>
       </c>
@@ -5501,7 +4931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>159</v>
       </c>
@@ -5515,7 +4945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
         <v>161</v>
       </c>
@@ -5529,7 +4959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>163</v>
       </c>
@@ -5543,7 +4973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>165</v>
       </c>
@@ -5557,7 +4987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>31</v>
       </c>
@@ -5571,7 +5001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>168</v>
       </c>
@@ -5585,7 +5015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>84</v>
       </c>
@@ -5599,7 +5029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>55</v>
       </c>
@@ -5613,7 +5043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>171</v>
       </c>
@@ -5627,7 +5057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>173</v>
       </c>
@@ -5641,7 +5071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>121</v>
       </c>
@@ -5655,7 +5085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>121</v>
       </c>
@@ -5669,7 +5099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>121</v>
       </c>
@@ -5683,7 +5113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>121</v>
       </c>
@@ -5697,7 +5127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>121</v>
       </c>
@@ -5711,7 +5141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>121</v>
       </c>
@@ -5725,7 +5155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>121</v>
       </c>
@@ -5739,7 +5169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>175</v>
       </c>
@@ -5753,7 +5183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>47</v>
       </c>
@@ -5767,7 +5197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>178</v>
       </c>
@@ -5781,7 +5211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>180</v>
       </c>
@@ -5795,7 +5225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>182</v>
       </c>
@@ -5809,7 +5239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>184</v>
       </c>
@@ -5823,7 +5253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>186</v>
       </c>
@@ -5837,7 +5267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>188</v>
       </c>
@@ -5851,7 +5281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>190</v>
       </c>
@@ -5865,7 +5295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>192</v>
       </c>
@@ -5879,7 +5309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>194</v>
       </c>
@@ -5893,7 +5323,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>196</v>
       </c>
@@ -5907,7 +5337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>55</v>
       </c>
@@ -5921,7 +5351,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>198</v>
       </c>
@@ -5935,7 +5365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>200</v>
       </c>
@@ -5949,7 +5379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>202</v>
       </c>
@@ -5963,7 +5393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>204</v>
       </c>
@@ -5977,7 +5407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>206</v>
       </c>
@@ -5991,7 +5421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>208</v>
       </c>
@@ -6005,7 +5435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>210</v>
       </c>
@@ -6019,7 +5449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>211</v>
       </c>
@@ -6033,7 +5463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>212</v>
       </c>
@@ -6047,7 +5477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>214</v>
       </c>
@@ -6061,7 +5491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>216</v>
       </c>
@@ -6075,7 +5505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>218</v>
       </c>
@@ -6089,7 +5519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>220</v>
       </c>
@@ -6103,7 +5533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>222</v>
       </c>
@@ -6117,7 +5547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>224</v>
       </c>
@@ -6131,7 +5561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>226</v>
       </c>
@@ -6145,7 +5575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>228</v>
       </c>
@@ -6159,7 +5589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>230</v>
       </c>
@@ -6173,7 +5603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>232</v>
       </c>
@@ -6187,7 +5617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>234</v>
       </c>
@@ -6201,7 +5631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>173</v>
       </c>
@@ -6215,7 +5645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>236</v>
       </c>
@@ -6229,7 +5659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>237</v>
       </c>
@@ -6243,7 +5673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>95</v>
       </c>
@@ -6257,7 +5687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>239</v>
       </c>
@@ -6271,7 +5701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>241</v>
       </c>
@@ -6285,7 +5715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>243</v>
       </c>
@@ -6299,7 +5729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>245</v>
       </c>
@@ -6313,7 +5743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>52</v>
       </c>
@@ -6327,7 +5757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>247</v>
       </c>
@@ -6341,7 +5771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>249</v>
       </c>
@@ -6355,7 +5785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>251</v>
       </c>
@@ -6369,7 +5799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>253</v>
       </c>
@@ -6383,7 +5813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>253</v>
       </c>
@@ -6397,7 +5827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>253</v>
       </c>
@@ -6411,7 +5841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>253</v>
       </c>
@@ -6425,7 +5855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>253</v>
       </c>
@@ -6439,7 +5869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>253</v>
       </c>
@@ -6453,7 +5883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>253</v>
       </c>
@@ -6467,7 +5897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>253</v>
       </c>
@@ -6481,7 +5911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>253</v>
       </c>
@@ -6495,7 +5925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>253</v>
       </c>
@@ -6509,7 +5939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>254</v>
       </c>
@@ -6523,7 +5953,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>257</v>
       </c>
@@ -6537,7 +5967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>259</v>
       </c>
@@ -6551,7 +5981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>261</v>
       </c>
@@ -6565,7 +5995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>263</v>
       </c>
@@ -6579,7 +6009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>265</v>
       </c>
@@ -6593,7 +6023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>267</v>
       </c>
@@ -6607,7 +6037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>269</v>
       </c>
@@ -6621,7 +6051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>270</v>
       </c>
@@ -6635,7 +6065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>272</v>
       </c>
@@ -6649,7 +6079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>274</v>
       </c>
@@ -6663,7 +6093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>276</v>
       </c>
@@ -6677,7 +6107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>278</v>
       </c>
@@ -6691,7 +6121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>279</v>
       </c>
@@ -6705,7 +6135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>280</v>
       </c>
@@ -6719,7 +6149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>55</v>
       </c>
@@ -6733,7 +6163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>283</v>
       </c>
@@ -6747,7 +6177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>237</v>
       </c>
@@ -6761,7 +6191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>286</v>
       </c>
@@ -6775,7 +6205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>287</v>
       </c>
@@ -6789,7 +6219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>289</v>
       </c>
@@ -6803,7 +6233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>291</v>
       </c>
@@ -6817,7 +6247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>293</v>
       </c>
@@ -6831,7 +6261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>295</v>
       </c>
@@ -6845,7 +6275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>297</v>
       </c>
@@ -6859,7 +6289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>299</v>
       </c>
@@ -6873,7 +6303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>301</v>
       </c>
@@ -6887,7 +6317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>302</v>
       </c>
@@ -6901,7 +6331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>304</v>
       </c>
@@ -6915,7 +6345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>306</v>
       </c>
@@ -6929,7 +6359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>87</v>
       </c>
@@ -6943,7 +6373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>309</v>
       </c>
@@ -6957,7 +6387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>311</v>
       </c>
@@ -6971,7 +6401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>313</v>
       </c>
@@ -6985,7 +6415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>315</v>
       </c>
@@ -6999,7 +6429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>317</v>
       </c>
@@ -7013,7 +6443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>319</v>
       </c>
@@ -7027,7 +6457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>321</v>
       </c>
@@ -7041,7 +6471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>323</v>
       </c>
@@ -7055,7 +6485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>325</v>
       </c>
@@ -7069,7 +6499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>327</v>
       </c>
@@ -7083,7 +6513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>230</v>
       </c>
@@ -7097,7 +6527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>330</v>
       </c>
@@ -7111,7 +6541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>332</v>
       </c>
@@ -7125,7 +6555,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>334</v>
       </c>
@@ -7139,7 +6569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>228</v>
       </c>
@@ -7153,7 +6583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>336</v>
       </c>
@@ -7167,7 +6597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>337</v>
       </c>
@@ -7181,7 +6611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>339</v>
       </c>
@@ -7195,7 +6625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>341</v>
       </c>
@@ -7209,7 +6639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>343</v>
       </c>
@@ -7223,7 +6653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>345</v>
       </c>
@@ -7237,7 +6667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>347</v>
       </c>
@@ -7251,7 +6681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>349</v>
       </c>
@@ -7265,7 +6695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>350</v>
       </c>
@@ -7279,7 +6709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>214</v>
       </c>
@@ -7293,7 +6723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>353</v>
       </c>
@@ -7307,7 +6737,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>355</v>
       </c>
@@ -7321,7 +6751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>357</v>
       </c>
@@ -7335,7 +6765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>359</v>
       </c>
@@ -7349,7 +6779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>361</v>
       </c>
@@ -7363,7 +6793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>362</v>
       </c>
@@ -7377,7 +6807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>85</v>
       </c>
@@ -7391,7 +6821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>364</v>
       </c>
@@ -7405,7 +6835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>366</v>
       </c>
@@ -7419,7 +6849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>368</v>
       </c>
@@ -7433,7 +6863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>370</v>
       </c>
@@ -7447,7 +6877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>372</v>
       </c>
@@ -7461,7 +6891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>374</v>
       </c>
@@ -7475,7 +6905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>109</v>
       </c>
@@ -7489,7 +6919,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>377</v>
       </c>
@@ -7503,7 +6933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>379</v>
       </c>
@@ -7517,7 +6947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>380</v>
       </c>
@@ -7531,7 +6961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>382</v>
       </c>
@@ -7545,7 +6975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>171</v>
       </c>
@@ -7559,7 +6989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>230</v>
       </c>
@@ -7573,7 +7003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>279</v>
       </c>
@@ -7587,7 +7017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>384</v>
       </c>
@@ -7601,7 +7031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>85</v>
       </c>
@@ -7615,7 +7045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>109</v>
       </c>
@@ -7629,7 +7059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>244</v>
       </c>
@@ -7643,7 +7073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>293</v>
       </c>
@@ -7657,7 +7087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>389</v>
       </c>
@@ -7671,7 +7101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>391</v>
       </c>
@@ -7685,7 +7115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>392</v>
       </c>
@@ -7699,7 +7129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>393</v>
       </c>
@@ -7713,7 +7143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>186</v>
       </c>
@@ -7727,7 +7157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>395</v>
       </c>
@@ -7741,7 +7171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>397</v>
       </c>
@@ -7755,7 +7185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>398</v>
       </c>
@@ -7769,7 +7199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>19</v>
       </c>
@@ -7783,7 +7213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>401</v>
       </c>
@@ -7797,7 +7227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>403</v>
       </c>
@@ -7811,7 +7241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>405</v>
       </c>
@@ -7825,7 +7255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>407</v>
       </c>
@@ -7839,7 +7269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>408</v>
       </c>
@@ -7853,7 +7283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>410</v>
       </c>
@@ -7867,7 +7297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>412</v>
       </c>
@@ -7881,7 +7311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>414</v>
       </c>
@@ -7895,7 +7325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>416</v>
       </c>
@@ -7909,7 +7339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>418</v>
       </c>
@@ -7923,7 +7353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>188</v>
       </c>
@@ -7937,7 +7367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>421</v>
       </c>
@@ -7951,7 +7381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>423</v>
       </c>
@@ -7965,7 +7395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>424</v>
       </c>
@@ -7979,7 +7409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>426</v>
       </c>
@@ -7993,7 +7423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>427</v>
       </c>
@@ -8007,7 +7437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>429</v>
       </c>
@@ -8021,7 +7451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>382</v>
       </c>
@@ -8035,7 +7465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>432</v>
       </c>
@@ -8049,7 +7479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>434</v>
       </c>
@@ -8063,7 +7493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>398</v>
       </c>
@@ -8077,7 +7507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>436</v>
       </c>
@@ -8091,7 +7521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>438</v>
       </c>
@@ -8105,7 +7535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>440</v>
       </c>
@@ -8119,7 +7549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>441</v>
       </c>
@@ -8133,7 +7563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>443</v>
       </c>
@@ -8147,7 +7577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>445</v>
       </c>
@@ -8161,7 +7591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>447</v>
       </c>
@@ -8175,7 +7605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>449</v>
       </c>
@@ -8189,7 +7619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>451</v>
       </c>
@@ -8203,7 +7633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>453</v>
       </c>
@@ -8217,7 +7647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>455</v>
       </c>
@@ -8231,7 +7661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>457</v>
       </c>
@@ -8245,7 +7675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>347</v>
       </c>
@@ -8259,7 +7689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>459</v>
       </c>
@@ -8273,7 +7703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>461</v>
       </c>
@@ -8287,7 +7717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>463</v>
       </c>
@@ -8301,7 +7731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>55</v>
       </c>
@@ -8315,7 +7745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>464</v>
       </c>
@@ -8329,7 +7759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>466</v>
       </c>
@@ -8343,7 +7773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>468</v>
       </c>
@@ -8357,7 +7787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>470</v>
       </c>
@@ -8371,7 +7801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>472</v>
       </c>
@@ -8385,7 +7815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>474</v>
       </c>
@@ -8399,7 +7829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>87</v>
       </c>
@@ -8413,7 +7843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>477</v>
       </c>
@@ -8427,7 +7857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>479</v>
       </c>
@@ -8441,7 +7871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>278</v>
       </c>
@@ -8455,7 +7885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>481</v>
       </c>
@@ -8469,7 +7899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>483</v>
       </c>
@@ -8483,7 +7913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>484</v>
       </c>
@@ -8497,7 +7927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>486</v>
       </c>
@@ -8511,7 +7941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>488</v>
       </c>
@@ -8525,7 +7955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>490</v>
       </c>
@@ -8539,7 +7969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>492</v>
       </c>
@@ -8553,7 +7983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>55</v>
       </c>
@@ -8567,7 +7997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>495</v>
       </c>
@@ -8581,7 +8011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>497</v>
       </c>
@@ -8595,7 +8025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>499</v>
       </c>
@@ -8609,7 +8039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>501</v>
       </c>
@@ -8623,7 +8053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>259</v>
       </c>
@@ -8637,7 +8067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>293</v>
       </c>
@@ -8651,7 +8081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>503</v>
       </c>
@@ -8665,7 +8095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>504</v>
       </c>
@@ -8679,7 +8109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>506</v>
       </c>
@@ -8693,7 +8123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>507</v>
       </c>
@@ -8707,7 +8137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>339</v>
       </c>
@@ -8721,7 +8151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>509</v>
       </c>
@@ -8735,7 +8165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>511</v>
       </c>
@@ -8749,7 +8179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>512</v>
       </c>
@@ -8763,7 +8193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>506</v>
       </c>
@@ -8777,7 +8207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>391</v>
       </c>
@@ -8791,7 +8221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>516</v>
       </c>
@@ -8805,7 +8235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>518</v>
       </c>
@@ -8819,7 +8249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>519</v>
       </c>
@@ -8833,7 +8263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>521</v>
       </c>
@@ -8847,7 +8277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>523</v>
       </c>
@@ -8861,7 +8291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>525</v>
       </c>
@@ -8875,7 +8305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>527</v>
       </c>
@@ -8889,7 +8319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>529</v>
       </c>
@@ -8903,7 +8333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>531</v>
       </c>
@@ -8917,7 +8347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>532</v>
       </c>
@@ -8931,7 +8361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>533</v>
       </c>
@@ -8945,7 +8375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>535</v>
       </c>
@@ -8959,7 +8389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>418</v>
       </c>
@@ -8973,7 +8403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>537</v>
       </c>
@@ -8987,7 +8417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>539</v>
       </c>
@@ -9001,7 +8431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>541</v>
       </c>
@@ -9015,7 +8445,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>543</v>
       </c>
@@ -9029,7 +8459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>544</v>
       </c>
@@ -9043,7 +8473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>447</v>
       </c>
@@ -9054,7 +8484,7 @@
         <v>6521</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>545</v>
       </c>
@@ -9065,7 +8495,7 @@
         <v>6513</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>234</v>
       </c>
@@ -9076,7 +8506,7 @@
         <v>6447</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>133</v>
       </c>
@@ -9087,7 +8517,7 @@
         <v>6408</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>384</v>
       </c>
@@ -9098,7 +8528,7 @@
         <v>6407</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>276</v>
       </c>
@@ -9109,7 +8539,7 @@
         <v>6504</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>547</v>
       </c>
@@ -9120,7 +8550,7 @@
         <v>6548</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
         <v>549</v>
       </c>
@@ -9131,7 +8561,7 @@
         <v>6549</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>551</v>
       </c>
@@ -9142,7 +8572,7 @@
         <v>6550</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>553</v>
       </c>
@@ -9153,7 +8583,7 @@
         <v>6551</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>554</v>
       </c>
@@ -9164,7 +8594,7 @@
         <v>6556</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>556</v>
       </c>
@@ -9175,7 +8605,7 @@
         <v>6557</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>252</v>
       </c>
@@ -9186,7 +8616,7 @@
         <v>6586</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>559</v>
       </c>
@@ -9197,7 +8627,7 @@
         <v>6587</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>561</v>
       </c>
@@ -9208,7 +8638,7 @@
         <v>6593</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>563</v>
       </c>
@@ -9219,7 +8649,7 @@
         <v>6594</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>564</v>
       </c>
@@ -9230,7 +8660,7 @@
         <v>6595</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>566</v>
       </c>
@@ -9241,7 +8671,7 @@
         <v>6596</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>568</v>
       </c>
@@ -9252,7 +8682,7 @@
         <v>6597</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>188</v>
       </c>
@@ -9266,7 +8696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="5"/>
@@ -9274,7 +8704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="6"/>
@@ -9282,7 +8712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="5"/>
@@ -9290,7 +8720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>571</v>
       </c>
@@ -9304,7 +8734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>573</v>
       </c>
@@ -9318,7 +8748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>575</v>
       </c>
@@ -9332,7 +8762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>577</v>
       </c>
@@ -9346,7 +8776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>579</v>
       </c>
@@ -9360,7 +8790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>581</v>
       </c>
@@ -9374,7 +8804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>583</v>
       </c>
@@ -9388,7 +8818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>585</v>
       </c>
@@ -9402,7 +8832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>586</v>
       </c>
@@ -9416,7 +8846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>588</v>
       </c>
@@ -9430,7 +8860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>590</v>
       </c>
@@ -9444,7 +8874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>592</v>
       </c>
@@ -9458,7 +8888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>594</v>
       </c>
@@ -9472,7 +8902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>596</v>
       </c>
@@ -9486,7 +8916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>598</v>
       </c>
@@ -9500,7 +8930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>455</v>
       </c>
@@ -9514,7 +8944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>600</v>
       </c>
@@ -9528,7 +8958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>602</v>
       </c>
@@ -9542,7 +8972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>559</v>
       </c>
@@ -9556,7 +8986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>605</v>
       </c>
@@ -9570,7 +9000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>607</v>
       </c>
@@ -9584,7 +9014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>608</v>
       </c>
@@ -9598,7 +9028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>609</v>
       </c>
@@ -9612,7 +9042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>611</v>
       </c>
@@ -9626,7 +9056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>613</v>
       </c>
@@ -9640,7 +9070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>317</v>
       </c>
@@ -9654,7 +9084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
         <v>347</v>
       </c>
@@ -9668,7 +9098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>617</v>
       </c>
@@ -9682,7 +9112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>618</v>
       </c>
@@ -9696,7 +9126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>620</v>
       </c>
@@ -9710,7 +9140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>391</v>
       </c>
@@ -9724,7 +9154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>622</v>
       </c>
@@ -9738,7 +9168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>274</v>
       </c>
@@ -9752,7 +9182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>625</v>
       </c>
@@ -9766,7 +9196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
         <v>627</v>
       </c>
@@ -9780,7 +9210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>629</v>
       </c>
@@ -9794,7 +9224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
         <v>631</v>
       </c>
@@ -9808,7 +9238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>315</v>
       </c>
@@ -9822,7 +9252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
         <v>634</v>
       </c>
@@ -9836,7 +9266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>636</v>
       </c>
@@ -9850,7 +9280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
         <v>638</v>
       </c>
@@ -9864,7 +9294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>257</v>
       </c>
@@ -9878,7 +9308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
         <v>639</v>
       </c>
@@ -9892,7 +9322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>135</v>
       </c>
@@ -9906,7 +9336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
         <v>317</v>
       </c>
@@ -9920,7 +9350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>640</v>
       </c>
@@ -9934,7 +9364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
         <v>642</v>
       </c>
@@ -9948,7 +9378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>644</v>
       </c>
@@ -9962,7 +9392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
         <v>559</v>
       </c>
@@ -9976,7 +9406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>647</v>
       </c>
@@ -9990,7 +9420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
         <v>649</v>
       </c>
@@ -10004,7 +9434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>525</v>
       </c>
@@ -10018,7 +9448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
         <v>652</v>
       </c>
@@ -10032,7 +9462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>654</v>
       </c>
@@ -10046,7 +9476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
         <v>42</v>
       </c>
@@ -10060,7 +9490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>655</v>
       </c>
@@ -10074,7 +9504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
         <v>504</v>
       </c>
@@ -10088,7 +9518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>432</v>
       </c>
@@ -10102,7 +9532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
         <v>659</v>
       </c>
@@ -10116,7 +9546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>661</v>
       </c>
@@ -10130,7 +9560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
         <v>504</v>
       </c>
@@ -10144,7 +9574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>663</v>
       </c>
@@ -10158,7 +9588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
         <v>664</v>
       </c>
@@ -10172,7 +9602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>666</v>
       </c>
@@ -10186,7 +9616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
         <v>667</v>
       </c>
@@ -10200,7 +9630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>669</v>
       </c>
@@ -10214,7 +9644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
         <v>671</v>
       </c>
@@ -10228,7 +9658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>672</v>
       </c>
@@ -10242,7 +9672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
         <v>674</v>
       </c>
@@ -10256,7 +9686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>136</v>
       </c>
@@ -10270,7 +9700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
         <v>173</v>
       </c>
@@ -10284,7 +9714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>677</v>
       </c>
@@ -10298,7 +9728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="502" spans="1:4">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
         <v>678</v>
       </c>
@@ -10310,6 +9740,608 @@
       </c>
       <c r="D502" s="2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C503" s="6">
+        <v>9209</v>
+      </c>
+      <c r="D503" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A504" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C504" s="5">
+        <v>9279</v>
+      </c>
+      <c r="D504" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C505" s="6">
+        <v>9276</v>
+      </c>
+      <c r="D505" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A506" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C506" s="5">
+        <v>9274</v>
+      </c>
+      <c r="D506" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C507" s="6">
+        <v>9261</v>
+      </c>
+      <c r="D507" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A508" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C508" s="5">
+        <v>9260</v>
+      </c>
+      <c r="D508" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C509" s="6">
+        <v>9259</v>
+      </c>
+      <c r="D509" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A510" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C510" s="5">
+        <v>9258</v>
+      </c>
+      <c r="D510" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C511" s="6">
+        <v>9257</v>
+      </c>
+      <c r="D511" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A512" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C512" s="5">
+        <v>9256</v>
+      </c>
+      <c r="D512" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C513" s="6">
+        <v>9255</v>
+      </c>
+      <c r="D513" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A514" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C514" s="5">
+        <v>9254</v>
+      </c>
+      <c r="D514" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C515" s="6">
+        <v>9253</v>
+      </c>
+      <c r="D515" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A516" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C516" s="5">
+        <v>9219</v>
+      </c>
+      <c r="D516" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C517" s="6">
+        <v>9218</v>
+      </c>
+      <c r="D517" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A518" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C518" s="5">
+        <v>9217</v>
+      </c>
+      <c r="D518" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C519" s="6">
+        <v>9216</v>
+      </c>
+      <c r="D519" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A520" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C520" s="5">
+        <v>9222</v>
+      </c>
+      <c r="D520" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C521" s="6">
+        <v>9264</v>
+      </c>
+      <c r="D521" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A522" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C522" s="5">
+        <v>9272</v>
+      </c>
+      <c r="D522" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C523" s="6">
+        <v>9220</v>
+      </c>
+      <c r="D523" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A524" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C524" s="5">
+        <v>11437</v>
+      </c>
+      <c r="D524" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C525" s="6">
+        <v>11436</v>
+      </c>
+      <c r="D525" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A526" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C526" s="5">
+        <v>11435</v>
+      </c>
+      <c r="D526" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C527" s="6">
+        <v>11434</v>
+      </c>
+      <c r="D527" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A528" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C528" s="5">
+        <v>9221</v>
+      </c>
+      <c r="D528" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C529" s="6">
+        <v>9251</v>
+      </c>
+      <c r="D529" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A530" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C530" s="5">
+        <v>9252</v>
+      </c>
+      <c r="D530" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C531" s="6">
+        <v>9297</v>
+      </c>
+      <c r="D531" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A532" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C532" s="5">
+        <v>9213</v>
+      </c>
+      <c r="D532" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C533" s="6">
+        <v>9237</v>
+      </c>
+      <c r="D533" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A534" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C534" s="5">
+        <v>9241</v>
+      </c>
+      <c r="D534" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A535" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B535" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C535" s="16">
+        <v>9242</v>
+      </c>
+      <c r="D535" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A536" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B536" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C536" s="18">
+        <v>9223</v>
+      </c>
+      <c r="D536" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A537" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B537" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C537" s="16">
+        <v>9243</v>
+      </c>
+      <c r="D537" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A538" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B538" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C538" s="18">
+        <v>9288</v>
+      </c>
+      <c r="D538" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A539" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B539" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C539" s="16">
+        <v>9293</v>
+      </c>
+      <c r="D539" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A540" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B540" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C540" s="18">
+        <v>9239</v>
+      </c>
+      <c r="D540" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A541" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B541" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C541" s="16">
+        <v>9228</v>
+      </c>
+      <c r="D541" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A542" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B542" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C542" s="18">
+        <v>9296</v>
+      </c>
+      <c r="D542" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A543" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B543" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C543" s="16">
+        <v>9287</v>
+      </c>
+      <c r="D543" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A544" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B544" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C544" s="18">
+        <v>9227</v>
+      </c>
+      <c r="D544" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A545" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B545" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C545" s="16">
+        <v>9234</v>
+      </c>
+      <c r="D545" s="15" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -10328,6 +10360,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="19fc8c01-1281-4c4f-a9d6-4eaecf49cf8c" xsi:nil="true"/>
@@ -10343,15 +10384,6 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10572,13 +10604,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{516C47DE-5E69-4ED4-B335-2D06DB8F4F74}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31236C6E-5FF1-4D70-876A-B16E5BFCC253}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31236C6E-5FF1-4D70-876A-B16E5BFCC253}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{516C47DE-5E69-4ED4-B335-2D06DB8F4F74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="19fc8c01-1281-4c4f-a9d6-4eaecf49cf8c"/>
+    <ds:schemaRef ds:uri="64f8f827-b2a5-48dc-b2c3-f16a6c19a3e1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8608753D-D904-4E13-B351-DF9ECED19E3C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8608753D-D904-4E13-B351-DF9ECED19E3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="64f8f827-b2a5-48dc-b2c3-f16a6c19a3e1"/>
+    <ds:schemaRef ds:uri="19fc8c01-1281-4c4f-a9d6-4eaecf49cf8c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/New_Apex_Users.xlsx
+++ b/New_Apex_Users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tmgolf-my.sharepoint.com/personal/brandon_yates_taylormadegolf_com/Documents/Documents/GitHub/Apex-Revamped/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="114_{2C8957D2-8C71-4894-B5B9-E1B7EDA9EDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F887C0FE-166D-4B4A-8EA4-CED3CAEA78A8}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="114_{2C8957D2-8C71-4894-B5B9-E1B7EDA9EDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABFFCDF2-2117-4E34-AC21-2CD0A5FBC461}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="3975" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="681">
   <si>
     <t>First Name</t>
   </si>
@@ -2077,6 +2077,9 @@
   </si>
   <si>
     <t>Paulis</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -2248,7 +2251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2291,18 +2294,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2711,8 +2702,8 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2745,6 +2736,9 @@
       <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>680</v>
+      </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
@@ -2780,7 +2774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AB6290-216F-4273-8BAA-4D67C193A962}">
   <dimension ref="A1:D545"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A527" workbookViewId="0">
+    <sheetView topLeftCell="A512" workbookViewId="0">
       <selection activeCell="G532" sqref="G532"/>
     </sheetView>
   </sheetViews>
@@ -10191,156 +10185,156 @@
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A535" s="15" t="s">
+      <c r="A535" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B535" s="15" t="s">
+      <c r="B535" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C535" s="16">
+      <c r="C535" s="6">
         <v>9242</v>
       </c>
-      <c r="D535" s="15" t="s">
+      <c r="D535" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A536" s="17" t="s">
+      <c r="A536" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B536" s="17" t="s">
+      <c r="B536" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C536" s="18">
+      <c r="C536" s="5">
         <v>9223</v>
       </c>
-      <c r="D536" s="17" t="s">
+      <c r="D536" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A537" s="15" t="s">
+      <c r="A537" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B537" s="15" t="s">
+      <c r="B537" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C537" s="16">
+      <c r="C537" s="6">
         <v>9243</v>
       </c>
-      <c r="D537" s="15" t="s">
+      <c r="D537" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A538" s="17" t="s">
+      <c r="A538" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B538" s="17" t="s">
+      <c r="B538" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C538" s="18">
+      <c r="C538" s="5">
         <v>9288</v>
       </c>
-      <c r="D538" s="17" t="s">
+      <c r="D538" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A539" s="15" t="s">
+      <c r="A539" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B539" s="15" t="s">
+      <c r="B539" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C539" s="16">
+      <c r="C539" s="6">
         <v>9293</v>
       </c>
-      <c r="D539" s="15" t="s">
+      <c r="D539" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A540" s="17" t="s">
+      <c r="A540" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B540" s="17" t="s">
+      <c r="B540" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C540" s="18">
+      <c r="C540" s="5">
         <v>9239</v>
       </c>
-      <c r="D540" s="17" t="s">
+      <c r="D540" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A541" s="15" t="s">
+      <c r="A541" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B541" s="15" t="s">
+      <c r="B541" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C541" s="16">
+      <c r="C541" s="6">
         <v>9228</v>
       </c>
-      <c r="D541" s="15" t="s">
+      <c r="D541" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A542" s="17" t="s">
+      <c r="A542" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B542" s="17" t="s">
+      <c r="B542" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C542" s="18">
+      <c r="C542" s="5">
         <v>9296</v>
       </c>
-      <c r="D542" s="17" t="s">
+      <c r="D542" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A543" s="15" t="s">
+      <c r="A543" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B543" s="15" t="s">
+      <c r="B543" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C543" s="16">
+      <c r="C543" s="6">
         <v>9287</v>
       </c>
-      <c r="D543" s="15" t="s">
+      <c r="D543" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A544" s="17" t="s">
+      <c r="A544" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B544" s="17" t="s">
+      <c r="B544" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C544" s="18">
+      <c r="C544" s="5">
         <v>9227</v>
       </c>
-      <c r="D544" s="17" t="s">
+      <c r="D544" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A545" s="15" t="s">
+      <c r="A545" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B545" s="15" t="s">
+      <c r="B545" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C545" s="16">
+      <c r="C545" s="6">
         <v>9234</v>
       </c>
-      <c r="D545" s="15" t="s">
+      <c r="D545" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10369,24 +10363,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="19fc8c01-1281-4c4f-a9d6-4eaecf49cf8c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="64f8f827-b2a5-48dc-b2c3-f16a6c19a3e1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="19fc8c01-1281-4c4f-a9d6-4eaecf49cf8c">
-      <UserInfo>
-        <DisplayName>Wallis, Matt</DisplayName>
-        <AccountId>26</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC7C19C8B79DF846A59EF11074BAA4E6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac75452dfaff1ddbee136b983182fa5f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="64f8f827-b2a5-48dc-b2c3-f16a6c19a3e1" xmlns:ns3="19fc8c01-1281-4c4f-a9d6-4eaecf49cf8c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b0f6662259a420d4235d7fe97ace352" ns2:_="" ns3:_="">
     <xsd:import namespace="64f8f827-b2a5-48dc-b2c3-f16a6c19a3e1"/>
@@ -10603,6 +10579,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="19fc8c01-1281-4c4f-a9d6-4eaecf49cf8c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="64f8f827-b2a5-48dc-b2c3-f16a6c19a3e1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="19fc8c01-1281-4c4f-a9d6-4eaecf49cf8c">
+      <UserInfo>
+        <DisplayName>Wallis, Matt</DisplayName>
+        <AccountId>26</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31236C6E-5FF1-4D70-876A-B16E5BFCC253}">
   <ds:schemaRefs>
@@ -10612,17 +10606,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{516C47DE-5E69-4ED4-B335-2D06DB8F4F74}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="19fc8c01-1281-4c4f-a9d6-4eaecf49cf8c"/>
-    <ds:schemaRef ds:uri="64f8f827-b2a5-48dc-b2c3-f16a6c19a3e1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8608753D-D904-4E13-B351-DF9ECED19E3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10639,4 +10622,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{516C47DE-5E69-4ED4-B335-2D06DB8F4F74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="19fc8c01-1281-4c4f-a9d6-4eaecf49cf8c"/>
+    <ds:schemaRef ds:uri="64f8f827-b2a5-48dc-b2c3-f16a6c19a3e1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>